--- a/results/enge/enge_results.xlsx
+++ b/results/enge/enge_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W253"/>
+  <dimension ref="A1:X253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>productividad_ipi_index_1</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -617,6 +622,11 @@
       <c r="W2" t="n">
         <v>0.9655375273883546</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -690,6 +700,11 @@
       <c r="W3" t="n">
         <v>0.6731992824876608</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -763,6 +778,11 @@
       <c r="W4" t="n">
         <v>0.5911606616726508</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -836,6 +856,11 @@
       <c r="W5" t="n">
         <v>0.5403726227743313</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -909,6 +934,11 @@
       <c r="W6" t="n">
         <v>0.9306764790622576</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -982,6 +1012,11 @@
       <c r="W7" t="n">
         <v>0.7541752382287841</v>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1055,6 +1090,11 @@
       <c r="W8" t="n">
         <v>0.7218964618804438</v>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1128,6 +1168,11 @@
       <c r="W9" t="n">
         <v>0.7244387001599271</v>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1201,6 +1246,11 @@
       <c r="W10" t="n">
         <v>0.7988607932690958</v>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1274,6 +1324,11 @@
       <c r="W11" t="n">
         <v>1.078368147508145</v>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1347,6 +1402,11 @@
       <c r="W12" t="n">
         <v>0.8096637639524709</v>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1420,6 +1480,11 @@
       <c r="W13" t="n">
         <v>0.7939084002339221</v>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1493,6 +1558,11 @@
       <c r="W14" t="n">
         <v>0.7101334971865104</v>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1566,6 +1636,11 @@
       <c r="W15" t="n">
         <v>1.014771538295683</v>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1639,6 +1714,11 @@
       <c r="W16" t="n">
         <v>0.7684435587207532</v>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1712,6 +1792,11 @@
       <c r="W17" t="n">
         <v>0.8784292909638097</v>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1785,6 +1870,11 @@
       <c r="W18" t="n">
         <v>0.8613973724449109</v>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1858,6 +1948,11 @@
       <c r="W19" t="n">
         <v>0.9167468223943485</v>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1931,6 +2026,11 @@
       <c r="W20" t="n">
         <v>1.053034401221038</v>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2004,6 +2104,11 @@
       <c r="W21" t="n">
         <v>0.7848728463237061</v>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2077,6 +2182,11 @@
       <c r="W22" t="n">
         <v>0.8774549125206896</v>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2150,6 +2260,11 @@
       <c r="W23" t="n">
         <v>0.9345397471694883</v>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2223,6 +2338,11 @@
       <c r="W24" t="n">
         <v>0.634100720474478</v>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2296,6 +2416,11 @@
       <c r="W25" t="n">
         <v>0.8255390804799508</v>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2369,6 +2494,11 @@
       <c r="W26" t="n">
         <v>0.9182595789787379</v>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2442,6 +2572,11 @@
       <c r="W27" t="n">
         <v>0.8776842260573566</v>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2515,6 +2650,11 @@
       <c r="W28" t="n">
         <v>0.860886066032405</v>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2588,6 +2728,11 @@
       <c r="W29" t="n">
         <v>1.052401414151967</v>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2661,6 +2806,11 @@
       <c r="W30" t="n">
         <v>0.8404838039910085</v>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2734,6 +2884,11 @@
       <c r="W31" t="n">
         <v>0.9537781760251646</v>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2807,6 +2962,11 @@
       <c r="W32" t="n">
         <v>0.9141849171767609</v>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2880,6 +3040,11 @@
       <c r="W33" t="n">
         <v>0.92653357422214</v>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2953,6 +3118,11 @@
       <c r="W34" t="n">
         <v>1.011381710870384</v>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3026,6 +3196,11 @@
       <c r="W35" t="n">
         <v>0.9538669945303954</v>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3099,6 +3274,11 @@
       <c r="W36" t="n">
         <v>0.9457378903202371</v>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3172,6 +3352,11 @@
       <c r="W37" t="n">
         <v>0.9306417416789843</v>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3245,6 +3430,11 @@
       <c r="W38" t="n">
         <v>1</v>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3318,6 +3508,11 @@
       <c r="W39" t="n">
         <v>1</v>
       </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3391,6 +3586,11 @@
       <c r="W40" t="n">
         <v>1</v>
       </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3464,6 +3664,11 @@
       <c r="W41" t="n">
         <v>1</v>
       </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3537,6 +3742,11 @@
       <c r="W42" t="n">
         <v>1</v>
       </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3610,6 +3820,11 @@
       <c r="W43" t="n">
         <v>1</v>
       </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3683,6 +3898,11 @@
       <c r="W44" t="n">
         <v>1</v>
       </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3756,6 +3976,11 @@
       <c r="W45" t="n">
         <v>1</v>
       </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3829,6 +4054,11 @@
       <c r="W46" t="n">
         <v>1</v>
       </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3902,6 +4132,11 @@
       <c r="W47" t="n">
         <v>1.050420006487289</v>
       </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3975,6 +4210,11 @@
       <c r="W48" t="n">
         <v>1.026311496182025</v>
       </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4048,6 +4288,11 @@
       <c r="W49" t="n">
         <v>1.220514414577789</v>
       </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4121,6 +4366,11 @@
       <c r="W50" t="n">
         <v>1.160556178404059</v>
       </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4194,6 +4444,11 @@
       <c r="W51" t="n">
         <v>1.063795060754388</v>
       </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4267,6 +4522,11 @@
       <c r="W52" t="n">
         <v>0.8124811609440555</v>
       </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4340,6 +4600,11 @@
       <c r="W53" t="n">
         <v>1.031684161244126</v>
       </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4413,6 +4678,11 @@
       <c r="W54" t="n">
         <v>1.005167959014127</v>
       </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4486,6 +4756,11 @@
       <c r="W55" t="n">
         <v>1.043714802794835</v>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4559,6 +4834,11 @@
       <c r="W56" t="n">
         <v>1.082198391783598</v>
       </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4632,6 +4912,11 @@
       <c r="W57" t="n">
         <v>1.014382248630605</v>
       </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4705,6 +4990,11 @@
       <c r="W58" t="n">
         <v>1.253738428916553</v>
       </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4778,6 +5068,11 @@
       <c r="W59" t="n">
         <v>1.230110493462278</v>
       </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4851,6 +5146,11 @@
       <c r="W60" t="n">
         <v>0.7296488740491788</v>
       </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4924,6 +5224,11 @@
       <c r="W61" t="n">
         <v>1.255519191657036</v>
       </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4997,6 +5302,11 @@
       <c r="W62" t="n">
         <v>1.01552230130252</v>
       </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5070,6 +5380,11 @@
       <c r="W63" t="n">
         <v>1.021274002929934</v>
       </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5143,6 +5458,11 @@
       <c r="W64" t="n">
         <v>1.00864581167729</v>
       </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5216,6 +5536,11 @@
       <c r="W65" t="n">
         <v>1.127615387974315</v>
       </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5289,6 +5614,11 @@
       <c r="W66" t="n">
         <v>1.064128047677501</v>
       </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5362,6 +5692,11 @@
       <c r="W67" t="n">
         <v>1.095819390336142</v>
       </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5435,6 +5770,11 @@
       <c r="W68" t="n">
         <v>1.237291531096817</v>
       </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5508,6 +5848,11 @@
       <c r="W69" t="n">
         <v>0.974310682436092</v>
       </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5581,6 +5926,11 @@
       <c r="W70" t="n">
         <v>1.904977616332479</v>
       </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5654,6 +6004,11 @@
       <c r="W71" t="n">
         <v>0.9871603807878383</v>
       </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5727,6 +6082,11 @@
       <c r="W72" t="n">
         <v>1.095343774399946</v>
       </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5800,6 +6160,11 @@
       <c r="W73" t="n">
         <v>1.097636094753893</v>
       </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5873,6 +6238,11 @@
       <c r="W74" t="n">
         <v>1.075225920511548</v>
       </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5946,6 +6316,11 @@
       <c r="W75" t="n">
         <v>1.124106656160287</v>
       </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6019,6 +6394,11 @@
       <c r="W76" t="n">
         <v>1.10894911170732</v>
       </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6092,6 +6472,11 @@
       <c r="W77" t="n">
         <v>1.233433510010398</v>
       </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6165,6 +6550,11 @@
       <c r="W78" t="n">
         <v>0.6193886145464567</v>
       </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6238,6 +6628,11 @@
       <c r="W79" t="n">
         <v>1.5328209294666</v>
       </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6311,6 +6706,11 @@
       <c r="W80" t="n">
         <v>0.9654351318750515</v>
       </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6384,6 +6784,11 @@
       <c r="W81" t="n">
         <v>1.055058494816057</v>
       </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6457,6 +6862,11 @@
       <c r="W82" t="n">
         <v>1.089410039665801</v>
       </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6530,6 +6940,11 @@
       <c r="W83" t="n">
         <v>1.387218373968457</v>
       </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6603,6 +7018,11 @@
       <c r="W84" t="n">
         <v>1.13399164065861</v>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6676,6 +7096,11 @@
       <c r="W85" t="n">
         <v>0.7705188231540495</v>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6749,6 +7174,11 @@
       <c r="W86" t="n">
         <v>0.7849609808059061</v>
       </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6822,6 +7252,11 @@
       <c r="W87" t="n">
         <v>1.023279799175007</v>
       </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -6895,6 +7330,11 @@
       <c r="W88" t="n">
         <v>2.07916378034938</v>
       </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6968,6 +7408,11 @@
       <c r="W89" t="n">
         <v>0.8279455069117995</v>
       </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -7041,6 +7486,11 @@
       <c r="W90" t="n">
         <v>1.190320567084726</v>
       </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7114,6 +7564,11 @@
       <c r="W91" t="n">
         <v>1.338052881439008</v>
       </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -7187,6 +7642,11 @@
       <c r="W92" t="n">
         <v>1.464019743551098</v>
       </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -7260,6 +7720,11 @@
       <c r="W93" t="n">
         <v>1.328976902859728</v>
       </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -7333,6 +7798,11 @@
       <c r="W94" t="n">
         <v>0.7856606717675199</v>
       </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -7406,6 +7876,11 @@
       <c r="W95" t="n">
         <v>0.7985576818800064</v>
       </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -7479,6 +7954,11 @@
       <c r="W96" t="n">
         <v>0.9424922783362482</v>
       </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -7552,6 +8032,11 @@
       <c r="W97" t="n">
         <v>1.673700861911638</v>
       </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -7625,6 +8110,11 @@
       <c r="W98" t="n">
         <v>0.8319922705486268</v>
       </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7698,6 +8188,11 @@
       <c r="W99" t="n">
         <v>1.232092421892111</v>
       </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7771,6 +8266,11 @@
       <c r="W100" t="n">
         <v>1.404861621330227</v>
       </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7844,6 +8344,11 @@
       <c r="W101" t="n">
         <v>1.491350345340075</v>
       </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -7917,6 +8422,11 @@
       <c r="W102" t="n">
         <v>1.48520725279597</v>
       </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -7990,6 +8500,11 @@
       <c r="W103" t="n">
         <v>0.7958871658995581</v>
       </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -8063,6 +8578,11 @@
       <c r="W104" t="n">
         <v>0.8322876270227909</v>
       </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -8136,6 +8656,11 @@
       <c r="W105" t="n">
         <v>1.21923263170246</v>
       </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -8209,6 +8734,11 @@
       <c r="W106" t="n">
         <v>1.6835107179942</v>
       </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -8282,6 +8812,11 @@
       <c r="W107" t="n">
         <v>0.8893217887802174</v>
       </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -8355,6 +8890,11 @@
       <c r="W108" t="n">
         <v>1.30568124751747</v>
       </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -8428,6 +8968,11 @@
       <c r="W109" t="n">
         <v>1.539949830059086</v>
       </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -8501,6 +9046,11 @@
       <c r="W110" t="n">
         <v>1.54352777085219</v>
       </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -8574,6 +9124,11 @@
       <c r="W111" t="n">
         <v>1.453042463104012</v>
       </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -8647,6 +9202,11 @@
       <c r="W112" t="n">
         <v>0.9048596361641909</v>
       </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -8720,6 +9280,11 @@
       <c r="W113" t="n">
         <v>0.9187766876929342</v>
       </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -8793,6 +9358,11 @@
       <c r="W114" t="n">
         <v>1.26285122020636</v>
       </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -8866,6 +9436,11 @@
       <c r="W115" t="n">
         <v>1.474803127857875</v>
       </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -8939,6 +9514,11 @@
       <c r="W116" t="n">
         <v>0.9341430541362958</v>
       </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -9012,6 +9592,11 @@
       <c r="W117" t="n">
         <v>1.35696054762719</v>
       </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -9085,6 +9670,11 @@
       <c r="W118" t="n">
         <v>1.546552338021762</v>
       </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -9158,6 +9748,11 @@
       <c r="W119" t="n">
         <v>1.564391486496064</v>
       </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -9231,6 +9826,11 @@
       <c r="W120" t="n">
         <v>1.461639811733402</v>
       </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -9304,6 +9904,11 @@
       <c r="W121" t="n">
         <v>0.982949508679922</v>
       </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -9377,6 +9982,11 @@
       <c r="W122" t="n">
         <v>0.9783204449531475</v>
       </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -9450,6 +10060,11 @@
       <c r="W123" t="n">
         <v>1.3319189477687</v>
       </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -9523,6 +10138,11 @@
       <c r="W124" t="n">
         <v>1.59424955356755</v>
       </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -9596,6 +10216,11 @@
       <c r="W125" t="n">
         <v>1.005418329190879</v>
       </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -9669,6 +10294,11 @@
       <c r="W126" t="n">
         <v>1.409009831082886</v>
       </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -9742,6 +10372,11 @@
       <c r="W127" t="n">
         <v>1.569236191629599</v>
       </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -9815,6 +10450,11 @@
       <c r="W128" t="n">
         <v>1.918053866271535</v>
       </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -9888,6 +10528,11 @@
       <c r="W129" t="n">
         <v>1.483759714284771</v>
       </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -9961,6 +10606,11 @@
       <c r="W130" t="n">
         <v>1.082046570231265</v>
       </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -10034,6 +10684,11 @@
       <c r="W131" t="n">
         <v>1.010732489424514</v>
       </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -10107,6 +10762,11 @@
       <c r="W132" t="n">
         <v>1.446984433684948</v>
       </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -10180,6 +10840,11 @@
       <c r="W133" t="n">
         <v>1.261296472332019</v>
       </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -10253,6 +10918,11 @@
       <c r="W134" t="n">
         <v>1.040747341883922</v>
       </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -10326,6 +10996,11 @@
       <c r="W135" t="n">
         <v>1.418363373133066</v>
       </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -10399,6 +11074,11 @@
       <c r="W136" t="n">
         <v>1.684543800404557</v>
       </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -10472,6 +11152,11 @@
       <c r="W137" t="n">
         <v>1.889237365881537</v>
       </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -10545,6 +11230,11 @@
       <c r="W138" t="n">
         <v>1.61597505724605</v>
       </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -10618,6 +11308,11 @@
       <c r="W139" t="n">
         <v>1.062061705269974</v>
       </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -10691,6 +11386,11 @@
       <c r="W140" t="n">
         <v>0.8888609649453856</v>
       </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -10764,6 +11464,11 @@
       <c r="W141" t="n">
         <v>1.259022966545505</v>
       </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -10837,6 +11542,11 @@
       <c r="W142" t="n">
         <v>1.012705126069556</v>
       </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -10910,6 +11620,11 @@
       <c r="W143" t="n">
         <v>0.9924237083443946</v>
       </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -10983,6 +11698,11 @@
       <c r="W144" t="n">
         <v>1.335201455961898</v>
       </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -11056,6 +11776,11 @@
       <c r="W145" t="n">
         <v>1.691540514014277</v>
       </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -11129,6 +11854,11 @@
       <c r="W146" t="n">
         <v>1.9034095054665</v>
       </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -11202,6 +11932,11 @@
       <c r="W147" t="n">
         <v>1.368200951273467</v>
       </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -11275,6 +12010,11 @@
       <c r="W148" t="n">
         <v>1.154420968654192</v>
       </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -11348,6 +12088,11 @@
       <c r="W149" t="n">
         <v>0.8591192943006982</v>
       </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -11421,6 +12166,11 @@
       <c r="W150" t="n">
         <v>1.056545289247847</v>
       </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -11494,6 +12244,11 @@
       <c r="W151" t="n">
         <v>1.091375128846194</v>
       </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -11567,6 +12322,11 @@
       <c r="W152" t="n">
         <v>0.9918571540428023</v>
       </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -11640,6 +12400,11 @@
       <c r="W153" t="n">
         <v>1.286011129670423</v>
       </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -11713,6 +12478,11 @@
       <c r="W154" t="n">
         <v>1.542332923687951</v>
       </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -11786,6 +12556,11 @@
       <c r="W155" t="n">
         <v>1.982335373471905</v>
       </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -11859,6 +12634,11 @@
       <c r="W156" t="n">
         <v>1.402634340663601</v>
       </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -11932,6 +12712,11 @@
       <c r="W157" t="n">
         <v>1.452507578058224</v>
       </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -12005,6 +12790,11 @@
       <c r="W158" t="n">
         <v>0.7174541925227401</v>
       </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -12078,6 +12868,11 @@
       <c r="W159" t="n">
         <v>1.277501261727035</v>
       </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -12151,6 +12946,11 @@
       <c r="W160" t="n">
         <v>1.153489609035821</v>
       </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -12224,6 +13024,11 @@
       <c r="W161" t="n">
         <v>1.033244610476908</v>
       </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -12297,6 +13102,11 @@
       <c r="W162" t="n">
         <v>1.330002046956783</v>
       </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -12370,6 +13180,11 @@
       <c r="W163" t="n">
         <v>1.615982529519189</v>
       </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -12443,6 +13258,11 @@
       <c r="W164" t="n">
         <v>2.12940362473096</v>
       </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -12516,6 +13336,11 @@
       <c r="W165" t="n">
         <v>1.481532968611714</v>
       </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -12589,6 +13414,11 @@
       <c r="W166" t="n">
         <v>1.404303180961416</v>
       </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -12662,6 +13492,11 @@
       <c r="W167" t="n">
         <v>0.7277757631668669</v>
       </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -12735,6 +13570,11 @@
       <c r="W168" t="n">
         <v>1.238162626455064</v>
       </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -12808,6 +13648,11 @@
       <c r="W169" t="n">
         <v>1.002033666848277</v>
       </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -12881,6 +13726,11 @@
       <c r="W170" t="n">
         <v>1.038098191937751</v>
       </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -12954,6 +13804,11 @@
       <c r="W171" t="n">
         <v>1.313966037778414</v>
       </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -13027,6 +13882,11 @@
       <c r="W172" t="n">
         <v>1.647347453155421</v>
       </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -13100,6 +13960,11 @@
       <c r="W173" t="n">
         <v>2.047761875555398</v>
       </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -13173,6 +14038,11 @@
       <c r="W174" t="n">
         <v>1.400021245361283</v>
       </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -13246,6 +14116,11 @@
       <c r="W175" t="n">
         <v>1.256814820432401</v>
       </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -13319,6 +14194,11 @@
       <c r="W176" t="n">
         <v>0.6629294982278614</v>
       </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -13392,6 +14272,11 @@
       <c r="W177" t="n">
         <v>1.338766912605683</v>
       </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -13465,6 +14350,11 @@
       <c r="W178" t="n">
         <v>0.8938949334411623</v>
       </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -13538,6 +14428,11 @@
       <c r="W179" t="n">
         <v>1.028763983781385</v>
       </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -13611,6 +14506,11 @@
       <c r="W180" t="n">
         <v>1.293970578802475</v>
       </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -13684,6 +14584,11 @@
       <c r="W181" t="n">
         <v>1.625592369551838</v>
       </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -13757,6 +14662,11 @@
       <c r="W182" t="n">
         <v>2.020203212002306</v>
       </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -13830,6 +14740,11 @@
       <c r="W183" t="n">
         <v>1.257784961654216</v>
       </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -13903,6 +14818,11 @@
       <c r="W184" t="n">
         <v>1.18598565002453</v>
       </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -13976,6 +14896,11 @@
       <c r="W185" t="n">
         <v>0.680711298572792</v>
       </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -14049,6 +14974,11 @@
       <c r="W186" t="n">
         <v>1.473801078905665</v>
       </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -14122,6 +15052,11 @@
       <c r="W187" t="n">
         <v>0.7789845685990204</v>
       </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -14195,6 +15130,11 @@
       <c r="W188" t="n">
         <v>1.04256773762082</v>
       </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -14268,6 +15208,11 @@
       <c r="W189" t="n">
         <v>1.271384651940365</v>
       </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -14341,6 +15286,11 @@
       <c r="W190" t="n">
         <v>1.607676472214792</v>
       </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -14414,6 +15364,11 @@
       <c r="W191" t="n">
         <v>1.999776707210901</v>
       </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -14487,6 +15442,11 @@
       <c r="W192" t="n">
         <v>1.280878656891056</v>
       </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -14560,6 +15520,11 @@
       <c r="W193" t="n">
         <v>1.095419306952935</v>
       </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -14633,6 +15598,11 @@
       <c r="W194" t="n">
         <v>0.6259179137554093</v>
       </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -14706,6 +15676,11 @@
       <c r="W195" t="n">
         <v>1.128535330100045</v>
       </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -14779,6 +15754,11 @@
       <c r="W196" t="n">
         <v>0.701838255915197</v>
       </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -14852,6 +15832,11 @@
       <c r="W197" t="n">
         <v>0.9735425436345349</v>
       </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -14925,6 +15910,11 @@
       <c r="W198" t="n">
         <v>1.228014418541406</v>
       </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -14998,6 +15988,11 @@
       <c r="W199" t="n">
         <v>1.583327508925176</v>
       </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -15071,6 +16066,11 @@
       <c r="W200" t="n">
         <v>1.971748073326323</v>
       </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -15144,6 +16144,11 @@
       <c r="W201" t="n">
         <v>1.261039669100112</v>
       </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -15217,6 +16222,11 @@
       <c r="W202" t="n">
         <v>1.153974841070407</v>
       </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -15290,6 +16300,11 @@
       <c r="W203" t="n">
         <v>0.6443245224476318</v>
       </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -15363,6 +16378,11 @@
       <c r="W204" t="n">
         <v>1.503902457790673</v>
       </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -15436,6 +16456,11 @@
       <c r="W205" t="n">
         <v>0.5245267334707208</v>
       </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -15509,6 +16534,11 @@
       <c r="W206" t="n">
         <v>1.016342318043133</v>
       </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -15582,6 +16612,11 @@
       <c r="W207" t="n">
         <v>1.204558112716535</v>
       </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -15655,6 +16690,11 @@
       <c r="W208" t="n">
         <v>1.605523046512494</v>
       </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -15728,6 +16768,11 @@
       <c r="W209" t="n">
         <v>1.83317694780462</v>
       </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -15801,6 +16846,11 @@
       <c r="W210" t="n">
         <v>1.271466184725924</v>
       </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -15874,6 +16924,11 @@
       <c r="W211" t="n">
         <v>1.27890563600768</v>
       </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -15947,6 +17002,11 @@
       <c r="W212" t="n">
         <v>0.8170498368068068</v>
       </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -16020,6 +17080,11 @@
       <c r="W213" t="n">
         <v>1.520490756516</v>
       </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -16093,6 +17158,11 @@
       <c r="W214" t="n">
         <v>0.5897192865178299</v>
       </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -16166,6 +17236,11 @@
       <c r="W215" t="n">
         <v>0.871257308731925</v>
       </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -16239,6 +17314,11 @@
       <c r="W216" t="n">
         <v>1.171540685253981</v>
       </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -16312,6 +17392,11 @@
       <c r="W217" t="n">
         <v>1.562292589337589</v>
       </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -16385,6 +17470,11 @@
       <c r="W218" t="n">
         <v>1.964434689653546</v>
       </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -16458,6 +17548,11 @@
       <c r="W219" t="n">
         <v>1.302830110471927</v>
       </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -16531,6 +17626,11 @@
       <c r="W220" t="n">
         <v>1.020066261964222</v>
       </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -16604,6 +17704,11 @@
       <c r="W221" t="n">
         <v>0.8790503144275732</v>
       </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -16677,6 +17782,11 @@
       <c r="W222" t="n">
         <v>1.588439721668349</v>
       </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -16750,6 +17860,11 @@
       <c r="W223" t="n">
         <v>0.8053342768609437</v>
       </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -16823,6 +17938,11 @@
       <c r="W224" t="n">
         <v>0.8291719072665895</v>
       </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -16896,6 +18016,11 @@
       <c r="W225" t="n">
         <v>1.231345752191737</v>
       </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -16969,6 +18094,11 @@
       <c r="W226" t="n">
         <v>1.663975013867216</v>
       </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -17042,6 +18172,11 @@
       <c r="W227" t="n">
         <v>2.002519235046935</v>
       </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -17115,6 +18250,11 @@
       <c r="W228" t="n">
         <v>1.322641776236642</v>
       </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -17188,6 +18328,11 @@
       <c r="W229" t="n">
         <v>1.000058304434054</v>
       </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -17261,6 +18406,11 @@
       <c r="W230" t="n">
         <v>0.8253003842453235</v>
       </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -17334,6 +18484,11 @@
       <c r="W231" t="n">
         <v>1.475857609379086</v>
       </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -17407,6 +18562,11 @@
       <c r="W232" t="n">
         <v>0.7410701716624302</v>
       </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -17480,6 +18640,11 @@
       <c r="W233" t="n">
         <v>0.7977078786776125</v>
       </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -17553,6 +18718,11 @@
       <c r="W234" t="n">
         <v>1.208622469854537</v>
       </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -17626,6 +18796,11 @@
       <c r="W235" t="n">
         <v>1.690650460046172</v>
       </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -17699,6 +18874,11 @@
       <c r="W236" t="n">
         <v>1.843293001828729</v>
       </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -17772,6 +18952,11 @@
       <c r="W237" t="n">
         <v>1.074016544985437</v>
       </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -17845,6 +19030,11 @@
       <c r="W238" t="n">
         <v>0.9546865390859003</v>
       </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -17918,6 +19108,11 @@
       <c r="W239" t="n">
         <v>0.7713819713825384</v>
       </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -17991,6 +19186,11 @@
       <c r="W240" t="n">
         <v>1.230764811695587</v>
       </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -18064,6 +19264,11 @@
       <c r="W241" t="n">
         <v>0.5448373517075934</v>
       </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -18137,6 +19342,11 @@
       <c r="W242" t="n">
         <v>0.740247200548581</v>
       </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -18210,6 +19420,11 @@
       <c r="W243" t="n">
         <v>1.052128415987211</v>
       </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -18283,6 +19498,11 @@
       <c r="W244" t="n">
         <v>1.461769233885915</v>
       </c>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -18356,6 +19576,11 @@
       <c r="W245" t="n">
         <v>1.821892413588448</v>
       </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -18429,6 +19654,11 @@
       <c r="W246" t="n">
         <v>1.012338410252521</v>
       </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -18502,6 +19732,11 @@
       <c r="W247" t="n">
         <v>0.7713892554142985</v>
       </c>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -18575,6 +19810,11 @@
       <c r="W248" t="n">
         <v>0.6345330493942476</v>
       </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -18648,6 +19888,11 @@
       <c r="W249" t="n">
         <v>1.294474463857231</v>
       </c>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -18721,6 +19966,11 @@
       <c r="W250" t="n">
         <v>0.6070513764618353</v>
       </c>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -18794,6 +20044,11 @@
       <c r="W251" t="n">
         <v>0.7066852654704837</v>
       </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -18867,6 +20122,11 @@
       <c r="W252" t="n">
         <v>1.041035771270268</v>
       </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -18939,6 +20199,11 @@
       </c>
       <c r="W253" t="n">
         <v>1.440841859756294</v>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results/enge/enge_results.xlsx
+++ b/results/enge/enge_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X253"/>
+  <dimension ref="A1:X262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16701,7 +16701,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -16709,64 +16709,64 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>318010.524911</v>
+        <v>276573</v>
       </c>
       <c r="E209" t="n">
-        <v>137557</v>
+        <v>137543</v>
       </c>
       <c r="F209" t="n">
-        <v>15.34217733355001</v>
+        <v>12.11523243393146</v>
       </c>
       <c r="G209" t="n">
-        <v>16.55671666666666</v>
+        <v>14.77744618867244</v>
       </c>
       <c r="H209" t="n">
-        <v>2.855307952839285</v>
+        <v>2.474870697695416</v>
       </c>
       <c r="I209" t="n">
-        <v>1.780241001402992</v>
+        <v>1.608619101143571</v>
       </c>
       <c r="J209" t="n">
-        <v>47.27452477124005</v>
+        <v>36.57226855911622</v>
       </c>
       <c r="K209" t="n">
-        <v>29.47494585861226</v>
+        <v>23.77128220521975</v>
       </c>
       <c r="L209" t="n">
-        <v>11.28103968</v>
+        <v>9.385766216</v>
       </c>
       <c r="M209" t="n">
-        <v>20727.86137177413</v>
+        <v>22828.53436846945</v>
       </c>
       <c r="N209" t="n">
-        <v>28189.82415909737</v>
+        <v>29467.27988265076</v>
       </c>
       <c r="O209" t="n">
-        <v>6726.889935961133</v>
+        <v>7562.369273126748</v>
       </c>
       <c r="P209" t="n">
-        <v>19207.34233202437</v>
+        <v>18715.88611921357</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.392333656614994</v>
+        <v>2.500745128252571</v>
       </c>
       <c r="R209" t="n">
-        <v>1.305020587063355</v>
+        <v>1.304887767299774</v>
       </c>
       <c r="S209" t="n">
-        <v>0.1506856166663575</v>
+        <v>0.1659737999641526</v>
       </c>
       <c r="T209" t="n">
-        <v>0.2049319493671523</v>
+        <v>0.2142404912111177</v>
       </c>
       <c r="U209" t="n">
-        <v>0.04890256356245871</v>
+        <v>0.05498185493356077</v>
       </c>
       <c r="V209" t="n">
-        <v>0.139631878654117</v>
+        <v>0.1360729816800097</v>
       </c>
       <c r="W209" t="n">
-        <v>1.83317694780462</v>
+        <v>1.916444609966268</v>
       </c>
       <c r="X209" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -16787,64 +16787,64 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>294535.767356</v>
+        <v>228773</v>
       </c>
       <c r="E210" t="n">
-        <v>63237</v>
+        <v>64165</v>
       </c>
       <c r="F210" t="n">
-        <v>15.34217733355001</v>
+        <v>12.11523243393146</v>
       </c>
       <c r="G210" t="n">
-        <v>16.55671666666666</v>
+        <v>14.77744618867244</v>
       </c>
       <c r="H210" t="n">
-        <v>2.855307952839285</v>
+        <v>2.474870697695416</v>
       </c>
       <c r="I210" t="n">
-        <v>1.780241001402992</v>
+        <v>1.608619101143571</v>
       </c>
       <c r="J210" t="n">
-        <v>47.27452477124005</v>
+        <v>36.57226855911622</v>
       </c>
       <c r="K210" t="n">
-        <v>29.47494585861226</v>
+        <v>23.77128220521975</v>
       </c>
       <c r="L210" t="n">
-        <v>11.28103968</v>
+        <v>9.385766216</v>
       </c>
       <c r="M210" t="n">
-        <v>19197.7814460477</v>
+        <v>18883.08798428574</v>
       </c>
       <c r="N210" t="n">
-        <v>26108.92042851143</v>
+        <v>24374.46178981196</v>
       </c>
       <c r="O210" t="n">
-        <v>6230.327407440887</v>
+        <v>6255.368042871233</v>
       </c>
       <c r="P210" t="n">
-        <v>17789.50339525853</v>
+        <v>15481.22707260234</v>
       </c>
       <c r="Q210" t="n">
-        <v>1.670795817457624</v>
+        <v>1.559802096096103</v>
       </c>
       <c r="R210" t="n">
-        <v>1.314070195124992</v>
+        <v>1.3333541134177</v>
       </c>
       <c r="S210" t="n">
-        <v>0.3035846331427439</v>
+        <v>0.2942895345482076</v>
       </c>
       <c r="T210" t="n">
-        <v>0.4128741152886985</v>
+        <v>0.379871608973926</v>
       </c>
       <c r="U210" t="n">
-        <v>0.09852344999669319</v>
+        <v>0.0974887873898735</v>
       </c>
       <c r="V210" t="n">
-        <v>0.2813147903167216</v>
+        <v>0.2412721432650563</v>
       </c>
       <c r="W210" t="n">
-        <v>1.271466184725924</v>
+        <v>1.16983334014545</v>
       </c>
       <c r="X210" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -16865,64 +16865,64 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>179493.847442</v>
+        <v>129324</v>
       </c>
       <c r="E211" t="n">
-        <v>67721</v>
+        <v>67784</v>
       </c>
       <c r="F211" t="n">
-        <v>15.34217733355001</v>
+        <v>12.11523243393146</v>
       </c>
       <c r="G211" t="n">
-        <v>16.55671666666666</v>
+        <v>14.77744618867244</v>
       </c>
       <c r="H211" t="n">
-        <v>2.855307952839285</v>
+        <v>2.474870697695416</v>
       </c>
       <c r="I211" t="n">
-        <v>1.780241001402992</v>
+        <v>1.608619101143571</v>
       </c>
       <c r="J211" t="n">
-        <v>47.27452477124005</v>
+        <v>36.57226855911622</v>
       </c>
       <c r="K211" t="n">
-        <v>29.47494585861226</v>
+        <v>23.77128220521975</v>
       </c>
       <c r="L211" t="n">
-        <v>11.28103968</v>
+        <v>9.385766216</v>
       </c>
       <c r="M211" t="n">
-        <v>11699.37249059727</v>
+        <v>10674.49598720028</v>
       </c>
       <c r="N211" t="n">
-        <v>15911.1085975721</v>
+        <v>13778.73654891811</v>
       </c>
       <c r="O211" t="n">
-        <v>3796.840863246434</v>
+        <v>3536.121905890465</v>
       </c>
       <c r="P211" t="n">
-        <v>10841.14991249272</v>
+        <v>8751.444488367179</v>
       </c>
       <c r="Q211" t="n">
-        <v>1.458796843120702</v>
+        <v>1.263292073992928</v>
       </c>
       <c r="R211" t="n">
-        <v>1.140660266127674</v>
+        <v>1.141721408118578</v>
       </c>
       <c r="S211" t="n">
-        <v>0.1727584130564709</v>
+        <v>0.1574781067390576</v>
       </c>
       <c r="T211" t="n">
-        <v>0.2349508807839828</v>
+        <v>0.2032741730927373</v>
       </c>
       <c r="U211" t="n">
-        <v>0.05606593026160916</v>
+        <v>0.05216750126712005</v>
       </c>
       <c r="V211" t="n">
-        <v>0.1600854965593053</v>
+        <v>0.1291078202579839</v>
       </c>
       <c r="W211" t="n">
-        <v>1.27890563600768</v>
+        <v>1.106480149193912</v>
       </c>
       <c r="X211" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -16943,64 +16943,64 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>117010.747612</v>
+        <v>79230</v>
       </c>
       <c r="E212" t="n">
-        <v>57067</v>
+        <v>51300</v>
       </c>
       <c r="F212" t="n">
-        <v>15.34217733355001</v>
+        <v>12.11523243393146</v>
       </c>
       <c r="G212" t="n">
-        <v>16.55671666666666</v>
+        <v>14.77744618867244</v>
       </c>
       <c r="H212" t="n">
-        <v>2.855307952839285</v>
+        <v>2.474870697695416</v>
       </c>
       <c r="I212" t="n">
-        <v>1.780241001402992</v>
+        <v>1.608619101143571</v>
       </c>
       <c r="J212" t="n">
-        <v>47.27452477124005</v>
+        <v>36.57226855911622</v>
       </c>
       <c r="K212" t="n">
-        <v>29.47494585861226</v>
+        <v>23.77128220521975</v>
       </c>
       <c r="L212" t="n">
-        <v>11.28103968</v>
+        <v>9.385766216</v>
       </c>
       <c r="M212" t="n">
-        <v>7626.736744602925</v>
+        <v>6539.701192863491</v>
       </c>
       <c r="N212" t="n">
-        <v>10372.33720748689</v>
+        <v>8441.505805347666</v>
       </c>
       <c r="O212" t="n">
-        <v>2475.133238847167</v>
+        <v>2166.395553831474</v>
       </c>
       <c r="P212" t="n">
-        <v>7067.267621217172</v>
+        <v>5361.548875795147</v>
       </c>
       <c r="Q212" t="n">
-        <v>1.444173419966984</v>
+        <v>1.175337637478703</v>
       </c>
       <c r="R212" t="n">
-        <v>1.767546304899957</v>
+        <v>1.588923991823081</v>
       </c>
       <c r="S212" t="n">
-        <v>0.1336453071758271</v>
+        <v>0.1274795554164423</v>
       </c>
       <c r="T212" t="n">
-        <v>0.1817571837925051</v>
+        <v>0.1645517700847498</v>
       </c>
       <c r="U212" t="n">
-        <v>0.04337240855217844</v>
+        <v>0.04222993282322561</v>
       </c>
       <c r="V212" t="n">
-        <v>0.1238415830728297</v>
+        <v>0.1045136233098469</v>
       </c>
       <c r="W212" t="n">
-        <v>0.8170498368068068</v>
+        <v>0.7397066464646666</v>
       </c>
       <c r="X212" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -17021,64 +17021,64 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>100151.035164</v>
+        <v>82405</v>
       </c>
       <c r="E213" t="n">
-        <v>52811</v>
+        <v>55187</v>
       </c>
       <c r="F213" t="n">
-        <v>15.34217733355001</v>
+        <v>12.11523243393146</v>
       </c>
       <c r="G213" t="n">
-        <v>16.55671666666666</v>
+        <v>14.77744618867244</v>
       </c>
       <c r="H213" t="n">
-        <v>2.855307952839285</v>
+        <v>2.474870697695416</v>
       </c>
       <c r="I213" t="n">
-        <v>1.780241001402992</v>
+        <v>1.608619101143571</v>
       </c>
       <c r="J213" t="n">
-        <v>47.27452477124005</v>
+        <v>36.57226855911622</v>
       </c>
       <c r="K213" t="n">
-        <v>29.47494585861226</v>
+        <v>23.77128220521975</v>
       </c>
       <c r="L213" t="n">
-        <v>11.28103968</v>
+        <v>9.385766216</v>
       </c>
       <c r="M213" t="n">
-        <v>6527.824114312081</v>
+        <v>6801.76797675017</v>
       </c>
       <c r="N213" t="n">
-        <v>8877.819598627633</v>
+        <v>8779.783994568654</v>
       </c>
       <c r="O213" t="n">
-        <v>2118.499036185508</v>
+        <v>2253.20996609217</v>
       </c>
       <c r="P213" t="n">
-        <v>6048.967146102842</v>
+        <v>5576.403320836793</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.926781939828829</v>
+        <v>1.905504955174821</v>
       </c>
       <c r="R213" t="n">
-        <v>1.267210557888422</v>
+        <v>1.324223155368926</v>
       </c>
       <c r="S213" t="n">
-        <v>0.123607280951167</v>
+        <v>0.1232494605024765</v>
       </c>
       <c r="T213" t="n">
-        <v>0.1681055007219639</v>
+        <v>0.1590915250796139</v>
       </c>
       <c r="U213" t="n">
-        <v>0.0401147305710081</v>
+        <v>0.0408286365646288</v>
       </c>
       <c r="V213" t="n">
-        <v>0.1145399092254046</v>
+        <v>0.1010455962606555</v>
       </c>
       <c r="W213" t="n">
-        <v>1.520490756516</v>
+        <v>1.438960606789836</v>
       </c>
       <c r="X213" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -17099,64 +17099,64 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>211559.770066</v>
+        <v>194422</v>
       </c>
       <c r="E214" t="n">
-        <v>40095</v>
+        <v>42209</v>
       </c>
       <c r="F214" t="n">
-        <v>15.34217733355001</v>
+        <v>12.11523243393146</v>
       </c>
       <c r="G214" t="n">
-        <v>16.55671666666666</v>
+        <v>14.77744618867244</v>
       </c>
       <c r="H214" t="n">
-        <v>2.855307952839285</v>
+        <v>2.474870697695416</v>
       </c>
       <c r="I214" t="n">
-        <v>1.780241001402992</v>
+        <v>1.608619101143571</v>
       </c>
       <c r="J214" t="n">
-        <v>47.27452477124005</v>
+        <v>36.57226855911622</v>
       </c>
       <c r="K214" t="n">
-        <v>29.47494585861226</v>
+        <v>23.77128220521975</v>
       </c>
       <c r="L214" t="n">
-        <v>11.28103968</v>
+        <v>9.385766216</v>
       </c>
       <c r="M214" t="n">
-        <v>13789.42280919701</v>
+        <v>16047.73173443021</v>
       </c>
       <c r="N214" t="n">
-        <v>18753.57024415679</v>
+        <v>20714.55814321979</v>
       </c>
       <c r="O214" t="n">
-        <v>4475.132665843414</v>
+        <v>5316.104460015435</v>
       </c>
       <c r="P214" t="n">
-        <v>12777.88189079357</v>
+        <v>13156.67115398011</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.983956602863936</v>
+        <v>2.191411228294234</v>
       </c>
       <c r="R214" t="n">
-        <v>3.364238966269508</v>
+        <v>3.541617721094144</v>
       </c>
       <c r="S214" t="n">
-        <v>0.3439187631674028</v>
+        <v>0.3801969185346777</v>
       </c>
       <c r="T214" t="n">
-        <v>0.4677284011511856</v>
+        <v>0.4907616419062236</v>
       </c>
       <c r="U214" t="n">
-        <v>0.1116132352124558</v>
+        <v>0.1259471785641791</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3186901581442466</v>
+        <v>0.3117029816858989</v>
       </c>
       <c r="W214" t="n">
-        <v>0.5897192865178299</v>
+        <v>0.6187599568530568</v>
       </c>
       <c r="X214" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -17177,64 +17177,64 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>428446.7925519999</v>
+        <v>799218</v>
       </c>
       <c r="E215" t="n">
-        <v>432336</v>
+        <v>893504</v>
       </c>
       <c r="F215" t="n">
-        <v>15.34217733355001</v>
+        <v>12.11523243393146</v>
       </c>
       <c r="G215" t="n">
-        <v>16.55671666666666</v>
+        <v>14.77744618867244</v>
       </c>
       <c r="H215" t="n">
-        <v>2.855307952839285</v>
+        <v>2.474870697695416</v>
       </c>
       <c r="I215" t="n">
-        <v>1.780241001402992</v>
+        <v>1.608619101143571</v>
       </c>
       <c r="J215" t="n">
-        <v>47.27452477124005</v>
+        <v>36.57226855911622</v>
       </c>
       <c r="K215" t="n">
-        <v>29.47494585861226</v>
+        <v>23.77128220521975</v>
       </c>
       <c r="L215" t="n">
-        <v>11.28103968</v>
+        <v>9.385766216</v>
       </c>
       <c r="M215" t="n">
-        <v>27926.07484826027</v>
+        <v>65968.0286249902</v>
       </c>
       <c r="N215" t="n">
-        <v>37979.37111342559</v>
+        <v>85152.13160088794</v>
       </c>
       <c r="O215" t="n">
-        <v>9062.952924968375</v>
+        <v>21853.11525611615</v>
       </c>
       <c r="P215" t="n">
-        <v>25877.52156287026</v>
+        <v>54083.63460072252</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.7271833785937755</v>
+        <v>1.630390734145319</v>
       </c>
       <c r="R215" t="n">
-        <v>0.834636761500638</v>
+        <v>1.724934506836965</v>
       </c>
       <c r="S215" t="n">
-        <v>0.06459345242649299</v>
+        <v>0.07383070319214038</v>
       </c>
       <c r="T215" t="n">
-        <v>0.08784688555527551</v>
+        <v>0.09530134347567323</v>
       </c>
       <c r="U215" t="n">
-        <v>0.02096275333298262</v>
+        <v>0.02445776992169722</v>
       </c>
       <c r="V215" t="n">
-        <v>0.0598551163050735</v>
+        <v>0.06052981811018476</v>
       </c>
       <c r="W215" t="n">
-        <v>0.871257308731925</v>
+        <v>0.9451899348543894</v>
       </c>
       <c r="X215" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -17255,64 +17255,64 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1649208.485103</v>
+        <v>1324396</v>
       </c>
       <c r="E216" t="n">
-        <v>850824</v>
+        <v>834861</v>
       </c>
       <c r="F216" t="n">
-        <v>15.34217733355001</v>
+        <v>12.11523243393146</v>
       </c>
       <c r="G216" t="n">
-        <v>16.55671666666666</v>
+        <v>14.77744618867244</v>
       </c>
       <c r="H216" t="n">
-        <v>2.855307952839285</v>
+        <v>2.474870697695416</v>
       </c>
       <c r="I216" t="n">
-        <v>1.780241001402992</v>
+        <v>1.608619101143571</v>
       </c>
       <c r="J216" t="n">
-        <v>47.27452477124005</v>
+        <v>36.57226855911622</v>
       </c>
       <c r="K216" t="n">
-        <v>29.47494585861226</v>
+        <v>23.77128220521975</v>
       </c>
       <c r="L216" t="n">
-        <v>11.28103968</v>
+        <v>9.385766216</v>
       </c>
       <c r="M216" t="n">
-        <v>107495.0738247914</v>
+        <v>109316.598523585</v>
       </c>
       <c r="N216" t="n">
-        <v>146192.9513488778</v>
+        <v>141106.8600603209</v>
       </c>
       <c r="O216" t="n">
-        <v>34885.77607249291</v>
+        <v>36213.12136706032</v>
       </c>
       <c r="P216" t="n">
-        <v>99609.63386075944</v>
+        <v>89622.79294342533</v>
       </c>
       <c r="Q216" t="n">
-        <v>1.820324174853643</v>
+        <v>1.756994617288462</v>
       </c>
       <c r="R216" t="n">
-        <v>1.553786563083818</v>
+        <v>1.524634711576917</v>
       </c>
       <c r="S216" t="n">
-        <v>0.1263423150084993</v>
+        <v>0.1309398792416761</v>
       </c>
       <c r="T216" t="n">
-        <v>0.1718251381588645</v>
+        <v>0.1690183875643022</v>
       </c>
       <c r="U216" t="n">
-        <v>0.04100234134497018</v>
+        <v>0.04337622833868191</v>
       </c>
       <c r="V216" t="n">
-        <v>0.1170743113273244</v>
+        <v>0.1073505564919494</v>
       </c>
       <c r="W216" t="n">
-        <v>1.171540685253981</v>
+        <v>1.152403657051214</v>
       </c>
       <c r="X216" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -17333,64 +17333,64 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>797712.006799</v>
+        <v>664423</v>
       </c>
       <c r="E217" t="n">
-        <v>306250</v>
+        <v>315821</v>
       </c>
       <c r="F217" t="n">
-        <v>15.34217733355001</v>
+        <v>12.11523243393146</v>
       </c>
       <c r="G217" t="n">
-        <v>16.55671666666666</v>
+        <v>14.77744618867244</v>
       </c>
       <c r="H217" t="n">
-        <v>2.855307952839285</v>
+        <v>2.474870697695416</v>
       </c>
       <c r="I217" t="n">
-        <v>1.780241001402992</v>
+        <v>1.608619101143571</v>
       </c>
       <c r="J217" t="n">
-        <v>47.27452477124005</v>
+        <v>36.57226855911622</v>
       </c>
       <c r="K217" t="n">
-        <v>29.47494585861226</v>
+        <v>23.77128220521975</v>
       </c>
       <c r="L217" t="n">
-        <v>11.28103968</v>
+        <v>9.385766216</v>
       </c>
       <c r="M217" t="n">
-        <v>51994.7064524262</v>
+        <v>54841.95236231149</v>
       </c>
       <c r="N217" t="n">
-        <v>70712.63194058723</v>
+        <v>70790.49112339407</v>
       </c>
       <c r="O217" t="n">
-        <v>16874.03544845989</v>
+        <v>18167.39912991758</v>
       </c>
       <c r="P217" t="n">
-        <v>48180.56761247954</v>
+        <v>44961.9637599702</v>
       </c>
       <c r="Q217" t="n">
-        <v>1.795499376989927</v>
+        <v>1.7974763379711</v>
       </c>
       <c r="R217" t="n">
-        <v>1.149272158905405</v>
+        <v>1.185189493869923</v>
       </c>
       <c r="S217" t="n">
-        <v>0.1697786333140447</v>
+        <v>0.1736488465374737</v>
       </c>
       <c r="T217" t="n">
-        <v>0.2308983900100808</v>
+        <v>0.2241475111642166</v>
       </c>
       <c r="U217" t="n">
-        <v>0.05509889126027721</v>
+        <v>0.05752435439669172</v>
       </c>
       <c r="V217" t="n">
-        <v>0.1573243024080964</v>
+        <v>0.1423653391002188</v>
       </c>
       <c r="W217" t="n">
-        <v>1.562292589337589</v>
+        <v>1.516615146580414</v>
       </c>
       <c r="X217" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -17411,64 +17411,64 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>526944.7717316492</v>
+        <v>318010.524911</v>
       </c>
       <c r="E218" t="n">
-        <v>133637</v>
+        <v>137557</v>
       </c>
       <c r="F218" t="n">
-        <v>20.59241032452324</v>
+        <v>15.34217733355001</v>
       </c>
       <c r="G218" t="n">
-        <v>28.11243034511785</v>
+        <v>16.55671666666666</v>
       </c>
       <c r="H218" t="n">
-        <v>2.273945748921765</v>
+        <v>2.855307952839285</v>
       </c>
       <c r="I218" t="n">
-        <v>1.373708979879313</v>
+        <v>1.780241001402992</v>
       </c>
       <c r="J218" t="n">
-        <v>63.92614147513996</v>
+        <v>47.27452477124005</v>
       </c>
       <c r="K218" t="n">
-        <v>38.61829801132009</v>
+        <v>29.47494585861226</v>
       </c>
       <c r="L218" t="n">
-        <v>17.95541733</v>
+        <v>11.28103968</v>
       </c>
       <c r="M218" t="n">
-        <v>25589.27116482898</v>
+        <v>20727.86137177413</v>
       </c>
       <c r="N218" t="n">
-        <v>29347.39761527165</v>
+        <v>28189.82415909737</v>
       </c>
       <c r="O218" t="n">
-        <v>8243.024834160702</v>
+        <v>6726.889935961133</v>
       </c>
       <c r="P218" t="n">
-        <v>18744.19127989627</v>
+        <v>19207.34233202437</v>
       </c>
       <c r="Q218" t="n">
-        <v>2.490571301645361</v>
+        <v>2.392333656614994</v>
       </c>
       <c r="R218" t="n">
-        <v>1.267831053260725</v>
+        <v>1.305020587063355</v>
       </c>
       <c r="S218" t="n">
-        <v>0.1914834302238825</v>
+        <v>0.1506856166663575</v>
       </c>
       <c r="T218" t="n">
-        <v>0.2196053309732458</v>
+        <v>0.2049319493671523</v>
       </c>
       <c r="U218" t="n">
-        <v>0.06168220503423978</v>
+        <v>0.04890256356245871</v>
       </c>
       <c r="V218" t="n">
-        <v>0.1402619879217303</v>
+        <v>0.139631878654117</v>
       </c>
       <c r="W218" t="n">
-        <v>1.964434689653546</v>
+        <v>1.83317694780462</v>
       </c>
       <c r="X218" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -17489,64 +17489,64 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>462858.979532937</v>
+        <v>294535.767356</v>
       </c>
       <c r="E219" t="n">
-        <v>60933</v>
+        <v>63237</v>
       </c>
       <c r="F219" t="n">
-        <v>20.59241032452324</v>
+        <v>15.34217733355001</v>
       </c>
       <c r="G219" t="n">
-        <v>28.11243034511785</v>
+        <v>16.55671666666666</v>
       </c>
       <c r="H219" t="n">
-        <v>2.273945748921765</v>
+        <v>2.855307952839285</v>
       </c>
       <c r="I219" t="n">
-        <v>1.373708979879313</v>
+        <v>1.780241001402992</v>
       </c>
       <c r="J219" t="n">
-        <v>63.92614147513996</v>
+        <v>47.27452477124005</v>
       </c>
       <c r="K219" t="n">
-        <v>38.61829801132009</v>
+        <v>29.47494585861226</v>
       </c>
       <c r="L219" t="n">
-        <v>17.95541733</v>
+        <v>11.28103968</v>
       </c>
       <c r="M219" t="n">
-        <v>22477.16378212045</v>
+        <v>19197.7814460477</v>
       </c>
       <c r="N219" t="n">
-        <v>25778.23567261731</v>
+        <v>26108.92042851143</v>
       </c>
       <c r="O219" t="n">
-        <v>7240.527409478277</v>
+        <v>6230.327407440887</v>
       </c>
       <c r="P219" t="n">
-        <v>16464.56652273465</v>
+        <v>17789.50339525853</v>
       </c>
       <c r="Q219" t="n">
-        <v>1.649634210697295</v>
+        <v>1.670795817457624</v>
       </c>
       <c r="R219" t="n">
-        <v>1.266192880743096</v>
+        <v>1.314070195124992</v>
       </c>
       <c r="S219" t="n">
-        <v>0.3688832616500164</v>
+        <v>0.3035846331427439</v>
       </c>
       <c r="T219" t="n">
-        <v>0.4230586984494003</v>
+        <v>0.4128741152886985</v>
       </c>
       <c r="U219" t="n">
-        <v>0.118827686302632</v>
+        <v>0.09852344999669319</v>
       </c>
       <c r="V219" t="n">
-        <v>0.2702077121220792</v>
+        <v>0.2813147903167216</v>
       </c>
       <c r="W219" t="n">
-        <v>1.302830110471927</v>
+        <v>1.271466184725924</v>
       </c>
       <c r="X219" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -17567,64 +17567,64 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>227956.7896141279</v>
+        <v>179493.847442</v>
       </c>
       <c r="E220" t="n">
-        <v>67747</v>
+        <v>67721</v>
       </c>
       <c r="F220" t="n">
-        <v>20.59241032452324</v>
+        <v>15.34217733355001</v>
       </c>
       <c r="G220" t="n">
-        <v>28.11243034511785</v>
+        <v>16.55671666666666</v>
       </c>
       <c r="H220" t="n">
-        <v>2.273945748921765</v>
+        <v>2.855307952839285</v>
       </c>
       <c r="I220" t="n">
-        <v>1.373708979879313</v>
+        <v>1.780241001402992</v>
       </c>
       <c r="J220" t="n">
-        <v>63.92614147513996</v>
+        <v>47.27452477124005</v>
       </c>
       <c r="K220" t="n">
-        <v>38.61829801132009</v>
+        <v>29.47494585861226</v>
       </c>
       <c r="L220" t="n">
-        <v>17.95541733</v>
+        <v>11.28103968</v>
       </c>
       <c r="M220" t="n">
-        <v>11069.94208165409</v>
+        <v>11699.37249059727</v>
       </c>
       <c r="N220" t="n">
-        <v>12695.71101715673</v>
+        <v>15911.1085975721</v>
       </c>
       <c r="O220" t="n">
-        <v>3565.940073244954</v>
+        <v>3796.840863246434</v>
       </c>
       <c r="P220" t="n">
-        <v>8108.754270465132</v>
+        <v>10841.14991249272</v>
       </c>
       <c r="Q220" t="n">
-        <v>1.16399577310578</v>
+        <v>1.458796843120702</v>
       </c>
       <c r="R220" t="n">
-        <v>1.141098197742968</v>
+        <v>1.140660266127674</v>
       </c>
       <c r="S220" t="n">
-        <v>0.1634012145431397</v>
+        <v>0.1727584130564709</v>
       </c>
       <c r="T220" t="n">
-        <v>0.1873988666237137</v>
+        <v>0.2349508807839828</v>
       </c>
       <c r="U220" t="n">
-        <v>0.05263613257037145</v>
+        <v>0.05606593026160916</v>
       </c>
       <c r="V220" t="n">
-        <v>0.1196917098980786</v>
+        <v>0.1600854965593053</v>
       </c>
       <c r="W220" t="n">
-        <v>1.020066261964222</v>
+        <v>1.27890563600768</v>
       </c>
       <c r="X220" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -17645,64 +17645,64 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>194771.8094925336</v>
+        <v>117010.747612</v>
       </c>
       <c r="E221" t="n">
-        <v>55472</v>
+        <v>57067</v>
       </c>
       <c r="F221" t="n">
-        <v>20.59241032452324</v>
+        <v>15.34217733355001</v>
       </c>
       <c r="G221" t="n">
-        <v>28.11243034511785</v>
+        <v>16.55671666666666</v>
       </c>
       <c r="H221" t="n">
-        <v>2.273945748921765</v>
+        <v>2.855307952839285</v>
       </c>
       <c r="I221" t="n">
-        <v>1.373708979879313</v>
+        <v>1.780241001402992</v>
       </c>
       <c r="J221" t="n">
-        <v>63.92614147513996</v>
+        <v>47.27452477124005</v>
       </c>
       <c r="K221" t="n">
-        <v>38.61829801132009</v>
+        <v>29.47494585861226</v>
       </c>
       <c r="L221" t="n">
-        <v>17.95541733</v>
+        <v>11.28103968</v>
       </c>
       <c r="M221" t="n">
-        <v>9458.426984653775</v>
+        <v>7626.736744602925</v>
       </c>
       <c r="N221" t="n">
-        <v>10847.52339156762</v>
+        <v>10372.33720748689</v>
       </c>
       <c r="O221" t="n">
-        <v>3046.8256803561</v>
+        <v>2475.133238847167</v>
       </c>
       <c r="P221" t="n">
-        <v>6928.316303551419</v>
+        <v>7067.267621217172</v>
       </c>
       <c r="Q221" t="n">
-        <v>1.510335100103027</v>
+        <v>1.444173419966984</v>
       </c>
       <c r="R221" t="n">
-        <v>1.718144087220467</v>
+        <v>1.767546304899957</v>
       </c>
       <c r="S221" t="n">
-        <v>0.1705081299512146</v>
+        <v>0.1336453071758271</v>
       </c>
       <c r="T221" t="n">
-        <v>0.1955495275376338</v>
+        <v>0.1817571837925051</v>
       </c>
       <c r="U221" t="n">
-        <v>0.05492547015352069</v>
+        <v>0.04337240855217844</v>
       </c>
       <c r="V221" t="n">
-        <v>0.1248975393631277</v>
+        <v>0.1238415830728297</v>
       </c>
       <c r="W221" t="n">
-        <v>0.8790503144275732</v>
+        <v>0.8170498368068068</v>
       </c>
       <c r="X221" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -17723,64 +17723,64 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>167449.3398038151</v>
+        <v>100151.035164</v>
       </c>
       <c r="E222" t="n">
-        <v>53103</v>
+        <v>52811</v>
       </c>
       <c r="F222" t="n">
-        <v>20.59241032452324</v>
+        <v>15.34217733355001</v>
       </c>
       <c r="G222" t="n">
-        <v>28.11243034511785</v>
+        <v>16.55671666666666</v>
       </c>
       <c r="H222" t="n">
-        <v>2.273945748921765</v>
+        <v>2.855307952839285</v>
       </c>
       <c r="I222" t="n">
-        <v>1.373708979879313</v>
+        <v>1.780241001402992</v>
       </c>
       <c r="J222" t="n">
-        <v>63.92614147513996</v>
+        <v>47.27452477124005</v>
       </c>
       <c r="K222" t="n">
-        <v>38.61829801132009</v>
+        <v>29.47494585861226</v>
       </c>
       <c r="L222" t="n">
-        <v>17.95541733</v>
+        <v>11.28103968</v>
       </c>
       <c r="M222" t="n">
-        <v>8131.604662345032</v>
+        <v>6527.824114312081</v>
       </c>
       <c r="N222" t="n">
-        <v>9325.83947932193</v>
+        <v>8877.819598627633</v>
       </c>
       <c r="O222" t="n">
-        <v>2619.418847122722</v>
+        <v>2118.499036185508</v>
       </c>
       <c r="P222" t="n">
-        <v>5956.416352060265</v>
+        <v>6048.967146102842</v>
       </c>
       <c r="Q222" t="n">
-        <v>2.024017145524998</v>
+        <v>1.926781939828829</v>
       </c>
       <c r="R222" t="n">
-        <v>1.274217156568686</v>
+        <v>1.267210557888422</v>
       </c>
       <c r="S222" t="n">
-        <v>0.1531289129116064</v>
+        <v>0.123607280951167</v>
       </c>
       <c r="T222" t="n">
-        <v>0.1756179402165966</v>
+        <v>0.1681055007219639</v>
       </c>
       <c r="U222" t="n">
-        <v>0.04932713494760602</v>
+        <v>0.0401147305710081</v>
       </c>
       <c r="V222" t="n">
-        <v>0.1121672288205989</v>
+        <v>0.1145399092254046</v>
       </c>
       <c r="W222" t="n">
-        <v>1.588439721668349</v>
+        <v>1.520490756516</v>
       </c>
       <c r="X222" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -17801,64 +17801,64 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>480223.9363763934</v>
+        <v>211559.770066</v>
       </c>
       <c r="E223" t="n">
-        <v>41872</v>
+        <v>40095</v>
       </c>
       <c r="F223" t="n">
-        <v>20.59241032452324</v>
+        <v>15.34217733355001</v>
       </c>
       <c r="G223" t="n">
-        <v>28.11243034511785</v>
+        <v>16.55671666666666</v>
       </c>
       <c r="H223" t="n">
-        <v>2.273945748921765</v>
+        <v>2.855307952839285</v>
       </c>
       <c r="I223" t="n">
-        <v>1.373708979879313</v>
+        <v>1.780241001402992</v>
       </c>
       <c r="J223" t="n">
-        <v>63.92614147513996</v>
+        <v>47.27452477124005</v>
       </c>
       <c r="K223" t="n">
-        <v>38.61829801132009</v>
+        <v>29.47494585861226</v>
       </c>
       <c r="L223" t="n">
-        <v>17.95541733</v>
+        <v>11.28103968</v>
       </c>
       <c r="M223" t="n">
-        <v>23320.43353878302</v>
+        <v>13789.42280919701</v>
       </c>
       <c r="N223" t="n">
-        <v>26745.35086266321</v>
+        <v>18753.57024415679</v>
       </c>
       <c r="O223" t="n">
-        <v>7512.168344512803</v>
+        <v>4475.132665843414</v>
       </c>
       <c r="P223" t="n">
-        <v>17082.26327218954</v>
+        <v>12777.88189079357</v>
       </c>
       <c r="Q223" t="n">
-        <v>2.82941406617901</v>
+        <v>1.983956602863936</v>
       </c>
       <c r="R223" t="n">
-        <v>3.513341164624937</v>
+        <v>3.364238966269508</v>
       </c>
       <c r="S223" t="n">
-        <v>0.5569457761459452</v>
+        <v>0.3439187631674028</v>
       </c>
       <c r="T223" t="n">
-        <v>0.6387407065022739</v>
+        <v>0.4677284011511856</v>
       </c>
       <c r="U223" t="n">
-        <v>0.1794079180481659</v>
+        <v>0.1116132352124558</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4079638725685313</v>
+        <v>0.3186901581442466</v>
       </c>
       <c r="W223" t="n">
-        <v>0.8053342768609437</v>
+        <v>0.5897192865178299</v>
       </c>
       <c r="X223" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -17879,64 +17879,64 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>622108.2548986035</v>
+        <v>428446.7925519999</v>
       </c>
       <c r="E224" t="n">
-        <v>414425</v>
+        <v>432336</v>
       </c>
       <c r="F224" t="n">
-        <v>20.59241032452324</v>
+        <v>15.34217733355001</v>
       </c>
       <c r="G224" t="n">
-        <v>28.11243034511785</v>
+        <v>16.55671666666666</v>
       </c>
       <c r="H224" t="n">
-        <v>2.273945748921765</v>
+        <v>2.855307952839285</v>
       </c>
       <c r="I224" t="n">
-        <v>1.373708979879313</v>
+        <v>1.780241001402992</v>
       </c>
       <c r="J224" t="n">
-        <v>63.92614147513996</v>
+        <v>47.27452477124005</v>
       </c>
       <c r="K224" t="n">
-        <v>38.61829801132009</v>
+        <v>29.47494585861226</v>
       </c>
       <c r="L224" t="n">
-        <v>17.95541733</v>
+        <v>11.28103968</v>
       </c>
       <c r="M224" t="n">
-        <v>30210.56035182743</v>
+        <v>27926.07484826027</v>
       </c>
       <c r="N224" t="n">
-        <v>34647.38487916858</v>
+        <v>37979.37111342559</v>
       </c>
       <c r="O224" t="n">
-        <v>9731.672216452063</v>
+        <v>9062.952924968375</v>
       </c>
       <c r="P224" t="n">
-        <v>22129.29466650122</v>
+        <v>25877.52156287026</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.6633865084450106</v>
+        <v>0.7271833785937755</v>
       </c>
       <c r="R224" t="n">
-        <v>0.8000590741573728</v>
+        <v>0.834636761500638</v>
       </c>
       <c r="S224" t="n">
-        <v>0.07289753357501942</v>
+        <v>0.06459345242649299</v>
       </c>
       <c r="T224" t="n">
-        <v>0.08360351059701654</v>
+        <v>0.08784688555527551</v>
       </c>
       <c r="U224" t="n">
-        <v>0.02348234835362747</v>
+        <v>0.02096275333298262</v>
       </c>
       <c r="V224" t="n">
-        <v>0.0533975862134312</v>
+        <v>0.0598551163050735</v>
       </c>
       <c r="W224" t="n">
-        <v>0.8291719072665895</v>
+        <v>0.871257308731925</v>
       </c>
       <c r="X224" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -17957,64 +17957,64 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2682313.88145006</v>
+        <v>1649208.485103</v>
       </c>
       <c r="E225" t="n">
-        <v>827189</v>
+        <v>850824</v>
       </c>
       <c r="F225" t="n">
-        <v>20.59241032452324</v>
+        <v>15.34217733355001</v>
       </c>
       <c r="G225" t="n">
-        <v>28.11243034511785</v>
+        <v>16.55671666666666</v>
       </c>
       <c r="H225" t="n">
-        <v>2.273945748921765</v>
+        <v>2.855307952839285</v>
       </c>
       <c r="I225" t="n">
-        <v>1.373708979879313</v>
+        <v>1.780241001402992</v>
       </c>
       <c r="J225" t="n">
-        <v>63.92614147513996</v>
+        <v>47.27452477124005</v>
       </c>
       <c r="K225" t="n">
-        <v>38.61829801132009</v>
+        <v>29.47494585861226</v>
       </c>
       <c r="L225" t="n">
-        <v>17.95541733</v>
+        <v>11.28103968</v>
       </c>
       <c r="M225" t="n">
-        <v>130257.4025662128</v>
+        <v>107495.0738247914</v>
       </c>
       <c r="N225" t="n">
-        <v>149387.442917767</v>
+        <v>146192.9513488778</v>
       </c>
       <c r="O225" t="n">
-        <v>41959.57740532763</v>
+        <v>34885.77607249291</v>
       </c>
       <c r="P225" t="n">
-        <v>95413.8026673985</v>
+        <v>99609.63386075944</v>
       </c>
       <c r="Q225" t="n">
-        <v>1.860100444335598</v>
+        <v>1.820324174853643</v>
       </c>
       <c r="R225" t="n">
-        <v>1.51062399900654</v>
+        <v>1.553786563083818</v>
       </c>
       <c r="S225" t="n">
-        <v>0.1574699404443395</v>
+        <v>0.1263423150084993</v>
       </c>
       <c r="T225" t="n">
-        <v>0.1805965056568294</v>
+        <v>0.1718251381588645</v>
       </c>
       <c r="U225" t="n">
-        <v>0.05072550215891124</v>
+        <v>0.04100234134497018</v>
       </c>
       <c r="V225" t="n">
-        <v>0.115347039996178</v>
+        <v>0.1170743113273244</v>
       </c>
       <c r="W225" t="n">
-        <v>1.231345752191737</v>
+        <v>1.171540685253981</v>
       </c>
       <c r="X225" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -18035,64 +18035,64 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1327301.50100264</v>
+        <v>797712.006799</v>
       </c>
       <c r="E226" t="n">
-        <v>300586</v>
+        <v>306250</v>
       </c>
       <c r="F226" t="n">
-        <v>20.59241032452324</v>
+        <v>15.34217733355001</v>
       </c>
       <c r="G226" t="n">
-        <v>28.11243034511785</v>
+        <v>16.55671666666666</v>
       </c>
       <c r="H226" t="n">
-        <v>2.273945748921765</v>
+        <v>2.855307952839285</v>
       </c>
       <c r="I226" t="n">
-        <v>1.373708979879313</v>
+        <v>1.780241001402992</v>
       </c>
       <c r="J226" t="n">
-        <v>63.92614147513996</v>
+        <v>47.27452477124005</v>
       </c>
       <c r="K226" t="n">
-        <v>38.61829801132009</v>
+        <v>29.47494585861226</v>
       </c>
       <c r="L226" t="n">
-        <v>17.95541733</v>
+        <v>11.28103968</v>
       </c>
       <c r="M226" t="n">
-        <v>64455.85922605539</v>
+        <v>51994.7064524262</v>
       </c>
       <c r="N226" t="n">
-        <v>73922.06355376534</v>
+        <v>70712.63194058723</v>
       </c>
       <c r="O226" t="n">
-        <v>20763.04732890549</v>
+        <v>16874.03544845989</v>
       </c>
       <c r="P226" t="n">
-        <v>47214.04320822606</v>
+        <v>48180.56761247954</v>
       </c>
       <c r="Q226" t="n">
-        <v>1.876991640872775</v>
+        <v>1.795499376989927</v>
       </c>
       <c r="R226" t="n">
-        <v>1.128016722144457</v>
+        <v>1.149272158905405</v>
       </c>
       <c r="S226" t="n">
-        <v>0.2144340030009894</v>
+        <v>0.1697786333140447</v>
       </c>
       <c r="T226" t="n">
-        <v>0.2459265020784911</v>
+        <v>0.2308983900100808</v>
       </c>
       <c r="U226" t="n">
-        <v>0.06907523081216521</v>
+        <v>0.05509889126027721</v>
       </c>
       <c r="V226" t="n">
-        <v>0.1570733274611128</v>
+        <v>0.1573243024080964</v>
       </c>
       <c r="W226" t="n">
-        <v>1.663975013867216</v>
+        <v>1.562292589337589</v>
       </c>
       <c r="X226" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -18113,64 +18113,64 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>787440.418027</v>
+        <v>526944.7717316492</v>
       </c>
       <c r="E227" t="n">
-        <v>130560</v>
+        <v>133637</v>
       </c>
       <c r="F227" t="n">
-        <v>31.4315481565974</v>
+        <v>20.59241032452324</v>
       </c>
       <c r="G227" t="n">
-        <v>48.25485833333334</v>
+        <v>28.11243034511785</v>
       </c>
       <c r="H227" t="n">
-        <v>2.068740154059925</v>
+        <v>2.273945748921765</v>
       </c>
       <c r="I227" t="n">
-        <v>1.199808142707142</v>
+        <v>1.373708979879313</v>
       </c>
       <c r="J227" t="n">
-        <v>99.82676306263988</v>
+        <v>63.92614147513996</v>
       </c>
       <c r="K227" t="n">
-        <v>57.89657195351291</v>
+        <v>38.61829801132009</v>
       </c>
       <c r="L227" t="n">
-        <v>26.9417363</v>
+        <v>17.95541733</v>
       </c>
       <c r="M227" t="n">
-        <v>25052.54956274619</v>
+        <v>25589.27116482898</v>
       </c>
       <c r="N227" t="n">
-        <v>29227.53044787986</v>
+        <v>29347.39761527165</v>
       </c>
       <c r="O227" t="n">
-        <v>7888.069229820588</v>
+        <v>8243.024834160702</v>
       </c>
       <c r="P227" t="n">
-        <v>16318.3655537344</v>
+        <v>18744.19127989627</v>
       </c>
       <c r="Q227" t="n">
-        <v>2.480398756500842</v>
+        <v>2.490571301645361</v>
       </c>
       <c r="R227" t="n">
-        <v>1.238639166650855</v>
+        <v>1.267831053260725</v>
       </c>
       <c r="S227" t="n">
-        <v>0.1918853367244653</v>
+        <v>0.1914834302238825</v>
       </c>
       <c r="T227" t="n">
-        <v>0.2238628251216288</v>
+        <v>0.2196053309732458</v>
       </c>
       <c r="U227" t="n">
-        <v>0.06041719691958171</v>
+        <v>0.06168220503423978</v>
       </c>
       <c r="V227" t="n">
-        <v>0.1249874812632843</v>
+        <v>0.1402619879217303</v>
       </c>
       <c r="W227" t="n">
-        <v>2.002519235046935</v>
+        <v>1.964434689653546</v>
       </c>
       <c r="X227" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -18191,64 +18191,64 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>703011.9120679999</v>
+        <v>462858.979532937</v>
       </c>
       <c r="E228" t="n">
-        <v>60755</v>
+        <v>60933</v>
       </c>
       <c r="F228" t="n">
-        <v>31.4315481565974</v>
+        <v>20.59241032452324</v>
       </c>
       <c r="G228" t="n">
-        <v>48.25485833333334</v>
+        <v>28.11243034511785</v>
       </c>
       <c r="H228" t="n">
-        <v>2.068740154059925</v>
+        <v>2.273945748921765</v>
       </c>
       <c r="I228" t="n">
-        <v>1.199808142707142</v>
+        <v>1.373708979879313</v>
       </c>
       <c r="J228" t="n">
-        <v>99.82676306263988</v>
+        <v>63.92614147513996</v>
       </c>
       <c r="K228" t="n">
-        <v>57.89657195351291</v>
+        <v>38.61829801132009</v>
       </c>
       <c r="L228" t="n">
-        <v>26.9417363</v>
+        <v>17.95541733</v>
       </c>
       <c r="M228" t="n">
-        <v>22366.44242165461</v>
+        <v>22477.16378212045</v>
       </c>
       <c r="N228" t="n">
-        <v>26093.78639297275</v>
+        <v>25778.23567261731</v>
       </c>
       <c r="O228" t="n">
-        <v>7042.31901846672</v>
+        <v>7240.527409478277</v>
       </c>
       <c r="P228" t="n">
-        <v>14568.72813120199</v>
+        <v>16464.56652273465</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.669827340674047</v>
+        <v>1.649634210697295</v>
       </c>
       <c r="R228" t="n">
-        <v>1.262494025725744</v>
+        <v>1.266192880743096</v>
       </c>
       <c r="S228" t="n">
-        <v>0.3681415919949735</v>
+        <v>0.3688832616500164</v>
       </c>
       <c r="T228" t="n">
-        <v>0.4294919988967616</v>
+        <v>0.4230586984494003</v>
       </c>
       <c r="U228" t="n">
-        <v>0.1159134066079618</v>
+        <v>0.118827686302632</v>
       </c>
       <c r="V228" t="n">
-        <v>0.2397947186437657</v>
+        <v>0.2702077121220792</v>
       </c>
       <c r="W228" t="n">
-        <v>1.322641776236642</v>
+        <v>1.302830110471927</v>
       </c>
       <c r="X228" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -18269,64 +18269,64 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>326049.647017</v>
+        <v>227956.7896141279</v>
       </c>
       <c r="E229" t="n">
-        <v>65871</v>
+        <v>67747</v>
       </c>
       <c r="F229" t="n">
-        <v>31.4315481565974</v>
+        <v>20.59241032452324</v>
       </c>
       <c r="G229" t="n">
-        <v>48.25485833333334</v>
+        <v>28.11243034511785</v>
       </c>
       <c r="H229" t="n">
-        <v>2.068740154059925</v>
+        <v>2.273945748921765</v>
       </c>
       <c r="I229" t="n">
-        <v>1.199808142707142</v>
+        <v>1.373708979879313</v>
       </c>
       <c r="J229" t="n">
-        <v>99.82676306263988</v>
+        <v>63.92614147513996</v>
       </c>
       <c r="K229" t="n">
-        <v>57.89657195351291</v>
+        <v>38.61829801132009</v>
       </c>
       <c r="L229" t="n">
-        <v>26.9417363</v>
+        <v>17.95541733</v>
       </c>
       <c r="M229" t="n">
-        <v>10373.32445072589</v>
+        <v>11069.94208165409</v>
       </c>
       <c r="N229" t="n">
-        <v>12102.02799798764</v>
+        <v>12695.71101715673</v>
       </c>
       <c r="O229" t="n">
-        <v>3266.154656466307</v>
+        <v>3565.940073244954</v>
       </c>
       <c r="P229" t="n">
-        <v>6756.825287201651</v>
+        <v>8108.754270465132</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.109564436101997</v>
+        <v>1.16399577310578</v>
       </c>
       <c r="R229" t="n">
-        <v>1.109499747347145</v>
+        <v>1.141098197742968</v>
       </c>
       <c r="S229" t="n">
-        <v>0.1574793831993728</v>
+        <v>0.1634012145431397</v>
       </c>
       <c r="T229" t="n">
-        <v>0.1837231558347018</v>
+        <v>0.1873988666237137</v>
       </c>
       <c r="U229" t="n">
-        <v>0.0495841061539419</v>
+        <v>0.05263613257037145</v>
       </c>
       <c r="V229" t="n">
-        <v>0.1025766314038295</v>
+        <v>0.1196917098980786</v>
       </c>
       <c r="W229" t="n">
-        <v>1.000058304434054</v>
+        <v>1.020066261964222</v>
       </c>
       <c r="X229" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -18347,64 +18347,64 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>273258.47711</v>
+        <v>194771.8094925336</v>
       </c>
       <c r="E230" t="n">
-        <v>55245</v>
+        <v>55472</v>
       </c>
       <c r="F230" t="n">
-        <v>31.4315481565974</v>
+        <v>20.59241032452324</v>
       </c>
       <c r="G230" t="n">
-        <v>48.25485833333334</v>
+        <v>28.11243034511785</v>
       </c>
       <c r="H230" t="n">
-        <v>2.068740154059925</v>
+        <v>2.273945748921765</v>
       </c>
       <c r="I230" t="n">
-        <v>1.199808142707142</v>
+        <v>1.373708979879313</v>
       </c>
       <c r="J230" t="n">
-        <v>99.82676306263988</v>
+        <v>63.92614147513996</v>
       </c>
       <c r="K230" t="n">
-        <v>57.89657195351291</v>
+        <v>38.61829801132009</v>
       </c>
       <c r="L230" t="n">
-        <v>26.9417363</v>
+        <v>17.95541733</v>
       </c>
       <c r="M230" t="n">
-        <v>8693.764486196449</v>
+        <v>9458.426984653775</v>
       </c>
       <c r="N230" t="n">
-        <v>10142.5711419349</v>
+        <v>10847.52339156762</v>
       </c>
       <c r="O230" t="n">
-        <v>2737.32683226976</v>
+        <v>3046.8256803561</v>
       </c>
       <c r="P230" t="n">
-        <v>5662.817932702112</v>
+        <v>6928.316303551419</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.412182361631447</v>
+        <v>1.510335100103027</v>
       </c>
       <c r="R230" t="n">
-        <v>1.711113175989593</v>
+        <v>1.718144087220467</v>
       </c>
       <c r="S230" t="n">
-        <v>0.157367444767788</v>
+        <v>0.1705081299512146</v>
       </c>
       <c r="T230" t="n">
-        <v>0.183592562981897</v>
+        <v>0.1955495275376338</v>
       </c>
       <c r="U230" t="n">
-        <v>0.04954886111448566</v>
+        <v>0.05492547015352069</v>
       </c>
       <c r="V230" t="n">
-        <v>0.1025037185754749</v>
+        <v>0.1248975393631277</v>
       </c>
       <c r="W230" t="n">
-        <v>0.8253003842453235</v>
+        <v>0.8790503144275732</v>
       </c>
       <c r="X230" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -18425,64 +18425,64 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>210692.184125</v>
+        <v>167449.3398038151</v>
       </c>
       <c r="E231" t="n">
-        <v>47927</v>
+        <v>53103</v>
       </c>
       <c r="F231" t="n">
-        <v>31.4315481565974</v>
+        <v>20.59241032452324</v>
       </c>
       <c r="G231" t="n">
-        <v>48.25485833333334</v>
+        <v>28.11243034511785</v>
       </c>
       <c r="H231" t="n">
-        <v>2.068740154059925</v>
+        <v>2.273945748921765</v>
       </c>
       <c r="I231" t="n">
-        <v>1.199808142707142</v>
+        <v>1.373708979879313</v>
       </c>
       <c r="J231" t="n">
-        <v>99.82676306263988</v>
+        <v>63.92614147513996</v>
       </c>
       <c r="K231" t="n">
-        <v>57.89657195351291</v>
+        <v>38.61829801132009</v>
       </c>
       <c r="L231" t="n">
-        <v>26.9417363</v>
+        <v>17.95541733</v>
       </c>
       <c r="M231" t="n">
-        <v>6703.207334086605</v>
+        <v>8131.604662345032</v>
       </c>
       <c r="N231" t="n">
-        <v>7820.289745950784</v>
+        <v>9325.83947932193</v>
       </c>
       <c r="O231" t="n">
-        <v>2110.578142184112</v>
+        <v>2619.418847122722</v>
       </c>
       <c r="P231" t="n">
-        <v>4366.23775101747</v>
+        <v>5956.416352060265</v>
       </c>
       <c r="Q231" t="n">
-        <v>1.697262810910893</v>
+        <v>2.024017145524998</v>
       </c>
       <c r="R231" t="n">
-        <v>1.15001799640072</v>
+        <v>1.274217156568686</v>
       </c>
       <c r="S231" t="n">
-        <v>0.1398628608944145</v>
+        <v>0.1531289129116064</v>
       </c>
       <c r="T231" t="n">
-        <v>0.1631708587216138</v>
+        <v>0.1756179402165966</v>
       </c>
       <c r="U231" t="n">
-        <v>0.04403735143414175</v>
+        <v>0.04932713494760602</v>
       </c>
       <c r="V231" t="n">
-        <v>0.09110183719025748</v>
+        <v>0.1121672288205989</v>
       </c>
       <c r="W231" t="n">
-        <v>1.475857609379086</v>
+        <v>1.588439721668349</v>
       </c>
       <c r="X231" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -18503,64 +18503,64 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>706772.54841</v>
+        <v>480223.9363763934</v>
       </c>
       <c r="E232" t="n">
-        <v>44632</v>
+        <v>41872</v>
       </c>
       <c r="F232" t="n">
-        <v>31.4315481565974</v>
+        <v>20.59241032452324</v>
       </c>
       <c r="G232" t="n">
-        <v>48.25485833333334</v>
+        <v>28.11243034511785</v>
       </c>
       <c r="H232" t="n">
-        <v>2.068740154059925</v>
+        <v>2.273945748921765</v>
       </c>
       <c r="I232" t="n">
-        <v>1.199808142707142</v>
+        <v>1.373708979879313</v>
       </c>
       <c r="J232" t="n">
-        <v>99.82676306263988</v>
+        <v>63.92614147513996</v>
       </c>
       <c r="K232" t="n">
-        <v>57.89657195351291</v>
+        <v>38.61829801132009</v>
       </c>
       <c r="L232" t="n">
-        <v>26.9417363</v>
+        <v>17.95541733</v>
       </c>
       <c r="M232" t="n">
-        <v>22486.0877004447</v>
+        <v>23320.43353878302</v>
       </c>
       <c r="N232" t="n">
-        <v>26233.37043091763</v>
+        <v>26745.35086266321</v>
       </c>
       <c r="O232" t="n">
-        <v>7079.990643055413</v>
+        <v>7512.168344512803</v>
       </c>
       <c r="P232" t="n">
-        <v>14646.66093365728</v>
+        <v>17082.26327218954</v>
       </c>
       <c r="Q232" t="n">
-        <v>2.775251208393823</v>
+        <v>2.82941406617901</v>
       </c>
       <c r="R232" t="n">
-        <v>3.744923644906863</v>
+        <v>3.513341164624937</v>
       </c>
       <c r="S232" t="n">
-        <v>0.5038108912987251</v>
+        <v>0.5569457761459452</v>
       </c>
       <c r="T232" t="n">
-        <v>0.5877704434243957</v>
+        <v>0.6387407065022739</v>
       </c>
       <c r="U232" t="n">
-        <v>0.1586303693102575</v>
+        <v>0.1794079180481659</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3281650146454849</v>
+        <v>0.4079638725685313</v>
       </c>
       <c r="W232" t="n">
-        <v>0.7410701716624302</v>
+        <v>0.8053342768609437</v>
       </c>
       <c r="X232" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -18581,64 +18581,64 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>891317.4146429999</v>
+        <v>622108.2548986035</v>
       </c>
       <c r="E233" t="n">
-        <v>411323</v>
+        <v>414425</v>
       </c>
       <c r="F233" t="n">
-        <v>31.4315481565974</v>
+        <v>20.59241032452324</v>
       </c>
       <c r="G233" t="n">
-        <v>48.25485833333334</v>
+        <v>28.11243034511785</v>
       </c>
       <c r="H233" t="n">
-        <v>2.068740154059925</v>
+        <v>2.273945748921765</v>
       </c>
       <c r="I233" t="n">
-        <v>1.199808142707142</v>
+        <v>1.373708979879313</v>
       </c>
       <c r="J233" t="n">
-        <v>99.82676306263988</v>
+        <v>63.92614147513996</v>
       </c>
       <c r="K233" t="n">
-        <v>57.89657195351291</v>
+        <v>38.61829801132009</v>
       </c>
       <c r="L233" t="n">
-        <v>26.9417363</v>
+        <v>17.95541733</v>
       </c>
       <c r="M233" t="n">
-        <v>28357.41371065474</v>
+        <v>30210.56035182743</v>
       </c>
       <c r="N233" t="n">
-        <v>33083.14671029572</v>
+        <v>34647.38487916858</v>
       </c>
       <c r="O233" t="n">
-        <v>8928.64185212247</v>
+        <v>9731.672216452063</v>
       </c>
       <c r="P233" t="n">
-        <v>18471.03992070573</v>
+        <v>22129.29466650122</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.6334363548953589</v>
+        <v>0.6633865084450106</v>
       </c>
       <c r="R233" t="n">
-        <v>0.7940705762433083</v>
+        <v>0.8000590741573728</v>
       </c>
       <c r="S233" t="n">
-        <v>0.06894195975098583</v>
+        <v>0.07289753357501942</v>
       </c>
       <c r="T233" t="n">
-        <v>0.08043106441967925</v>
+        <v>0.08360351059701654</v>
       </c>
       <c r="U233" t="n">
-        <v>0.02170713004651446</v>
+        <v>0.02348234835362747</v>
       </c>
       <c r="V233" t="n">
-        <v>0.04490641155662517</v>
+        <v>0.0533975862134312</v>
       </c>
       <c r="W233" t="n">
-        <v>0.7977078786776125</v>
+        <v>0.8291719072665895</v>
       </c>
       <c r="X233" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -18659,64 +18659,64 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>3898542.6014</v>
+        <v>2682313.88145006</v>
       </c>
       <c r="E234" t="n">
-        <v>816313</v>
+        <v>827189</v>
       </c>
       <c r="F234" t="n">
-        <v>31.4315481565974</v>
+        <v>20.59241032452324</v>
       </c>
       <c r="G234" t="n">
-        <v>48.25485833333334</v>
+        <v>28.11243034511785</v>
       </c>
       <c r="H234" t="n">
-        <v>2.068740154059925</v>
+        <v>2.273945748921765</v>
       </c>
       <c r="I234" t="n">
-        <v>1.199808142707142</v>
+        <v>1.373708979879313</v>
       </c>
       <c r="J234" t="n">
-        <v>99.82676306263988</v>
+        <v>63.92614147513996</v>
       </c>
       <c r="K234" t="n">
-        <v>57.89657195351291</v>
+        <v>38.61829801132009</v>
       </c>
       <c r="L234" t="n">
-        <v>26.9417363</v>
+        <v>17.95541733</v>
       </c>
       <c r="M234" t="n">
-        <v>124032.7896665092</v>
+        <v>130257.4025662128</v>
       </c>
       <c r="N234" t="n">
-        <v>144702.7228679393</v>
+        <v>149387.442917767</v>
       </c>
       <c r="O234" t="n">
-        <v>39053.08037438537</v>
+        <v>41959.57740532763</v>
       </c>
       <c r="P234" t="n">
-        <v>80790.67551022062</v>
+        <v>95413.8026673985</v>
       </c>
       <c r="Q234" t="n">
-        <v>1.801768568000655</v>
+        <v>1.860100444335598</v>
       </c>
       <c r="R234" t="n">
-        <v>1.490762097297021</v>
+        <v>1.51062399900654</v>
       </c>
       <c r="S234" t="n">
-        <v>0.1519426857914907</v>
+        <v>0.1574699404443395</v>
       </c>
       <c r="T234" t="n">
-        <v>0.177263773660274</v>
+        <v>0.1805965056568294</v>
       </c>
       <c r="U234" t="n">
-        <v>0.04784081642015424</v>
+        <v>0.05072550215891124</v>
       </c>
       <c r="V234" t="n">
-        <v>0.09897021793138247</v>
+        <v>0.115347039996178</v>
       </c>
       <c r="W234" t="n">
-        <v>1.208622469854537</v>
+        <v>1.231345752191737</v>
       </c>
       <c r="X234" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -18737,64 +18737,64 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1944288.433708</v>
+        <v>1327301.50100264</v>
       </c>
       <c r="E235" t="n">
-        <v>288817</v>
+        <v>300586</v>
       </c>
       <c r="F235" t="n">
-        <v>31.4315481565974</v>
+        <v>20.59241032452324</v>
       </c>
       <c r="G235" t="n">
-        <v>48.25485833333334</v>
+        <v>28.11243034511785</v>
       </c>
       <c r="H235" t="n">
-        <v>2.068740154059925</v>
+        <v>2.273945748921765</v>
       </c>
       <c r="I235" t="n">
-        <v>1.199808142707142</v>
+        <v>1.373708979879313</v>
       </c>
       <c r="J235" t="n">
-        <v>99.82676306263988</v>
+        <v>63.92614147513996</v>
       </c>
       <c r="K235" t="n">
-        <v>57.89657195351291</v>
+        <v>38.61829801132009</v>
       </c>
       <c r="L235" t="n">
-        <v>26.9417363</v>
+        <v>17.95541733</v>
       </c>
       <c r="M235" t="n">
-        <v>61857.8640804207</v>
+        <v>64455.85922605539</v>
       </c>
       <c r="N235" t="n">
-        <v>72166.41169886292</v>
+        <v>73922.06355376534</v>
       </c>
       <c r="O235" t="n">
-        <v>19476.62504581048</v>
+        <v>20763.04732890549</v>
       </c>
       <c r="P235" t="n">
-        <v>40292.07629783736</v>
+        <v>47214.04320822606</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.832413017150538</v>
+        <v>1.876991640872775</v>
       </c>
       <c r="R235" t="n">
-        <v>1.083850896713738</v>
+        <v>1.128016722144457</v>
       </c>
       <c r="S235" t="n">
-        <v>0.2141766727042408</v>
+        <v>0.2144340030009894</v>
       </c>
       <c r="T235" t="n">
-        <v>0.2498689886636276</v>
+        <v>0.2459265020784911</v>
       </c>
       <c r="U235" t="n">
-        <v>0.06743586785338286</v>
+        <v>0.06907523081216521</v>
       </c>
       <c r="V235" t="n">
-        <v>0.139507287652172</v>
+        <v>0.1570733274611128</v>
       </c>
       <c r="W235" t="n">
-        <v>1.690650460046172</v>
+        <v>1.663975013867216</v>
       </c>
       <c r="X235" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -18815,64 +18815,64 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1075673.365558</v>
+        <v>787440.418027</v>
       </c>
       <c r="E236" t="n">
-        <v>133622</v>
+        <v>130560</v>
       </c>
       <c r="F236" t="n">
-        <v>44.11803428009902</v>
+        <v>31.4315481565974</v>
       </c>
       <c r="G236" t="n">
-        <v>70.63476524170274</v>
+        <v>48.25485833333334</v>
       </c>
       <c r="H236" t="n">
-        <v>2.253124766700758</v>
+        <v>2.068740154059925</v>
       </c>
       <c r="I236" t="n">
-        <v>1.134610426075074</v>
+        <v>1.199808142707142</v>
       </c>
       <c r="J236" t="n">
-        <v>159.1489389561743</v>
+        <v>99.82676306263988</v>
       </c>
       <c r="K236" t="n">
-        <v>80.14294108660118</v>
+        <v>57.89657195351291</v>
       </c>
       <c r="L236" t="n">
-        <v>39.06634575</v>
+        <v>26.9417363</v>
       </c>
       <c r="M236" t="n">
-        <v>24381.71562061685</v>
+        <v>25052.54956274619</v>
       </c>
       <c r="N236" t="n">
-        <v>27534.52735102566</v>
+        <v>29227.53044787986</v>
       </c>
       <c r="O236" t="n">
-        <v>6758.910066338639</v>
+        <v>7888.069229820588</v>
       </c>
       <c r="P236" t="n">
-        <v>15228.66766637065</v>
+        <v>16318.3655537344</v>
       </c>
       <c r="Q236" t="n">
-        <v>2.336721794683021</v>
+        <v>2.480398756500842</v>
       </c>
       <c r="R236" t="n">
-        <v>1.267688746371174</v>
+        <v>1.238639166650855</v>
       </c>
       <c r="S236" t="n">
-        <v>0.1824678243149845</v>
+        <v>0.1918853367244653</v>
       </c>
       <c r="T236" t="n">
-        <v>0.2060628291076743</v>
+        <v>0.2238628251216288</v>
       </c>
       <c r="U236" t="n">
-        <v>0.05058231478602804</v>
+        <v>0.06041719691958171</v>
       </c>
       <c r="V236" t="n">
-        <v>0.1139682662014537</v>
+        <v>0.1249874812632843</v>
       </c>
       <c r="W236" t="n">
-        <v>1.843293001828729</v>
+        <v>2.002519235046935</v>
       </c>
       <c r="X236" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -18893,64 +18893,64 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>805369.000672</v>
+        <v>703011.9120679999</v>
       </c>
       <c r="E237" t="n">
-        <v>59111</v>
+        <v>60755</v>
       </c>
       <c r="F237" t="n">
-        <v>44.11803428009902</v>
+        <v>31.4315481565974</v>
       </c>
       <c r="G237" t="n">
-        <v>70.63476524170274</v>
+        <v>48.25485833333334</v>
       </c>
       <c r="H237" t="n">
-        <v>2.253124766700758</v>
+        <v>2.068740154059925</v>
       </c>
       <c r="I237" t="n">
-        <v>1.134610426075074</v>
+        <v>1.199808142707142</v>
       </c>
       <c r="J237" t="n">
-        <v>159.1489389561743</v>
+        <v>99.82676306263988</v>
       </c>
       <c r="K237" t="n">
-        <v>80.14294108660118</v>
+        <v>57.89657195351291</v>
       </c>
       <c r="L237" t="n">
-        <v>39.06634575</v>
+        <v>26.9417363</v>
       </c>
       <c r="M237" t="n">
-        <v>18254.87045861628</v>
+        <v>22366.44242165461</v>
       </c>
       <c r="N237" t="n">
-        <v>20615.41680468028</v>
+        <v>26093.78639297275</v>
       </c>
       <c r="O237" t="n">
-        <v>5060.473578738585</v>
+        <v>7042.31901846672</v>
       </c>
       <c r="P237" t="n">
-        <v>11401.87835149072</v>
+        <v>14568.72813120199</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.319248425713986</v>
+        <v>1.669827340674047</v>
       </c>
       <c r="R237" t="n">
-        <v>1.228331567026162</v>
+        <v>1.262494025725744</v>
       </c>
       <c r="S237" t="n">
-        <v>0.3088235769757961</v>
+        <v>0.3681415919949735</v>
       </c>
       <c r="T237" t="n">
-        <v>0.3487577067665963</v>
+        <v>0.4294919988967616</v>
       </c>
       <c r="U237" t="n">
-        <v>0.08560967635023237</v>
+        <v>0.1159134066079618</v>
       </c>
       <c r="V237" t="n">
-        <v>0.1928892820539447</v>
+        <v>0.2397947186437657</v>
       </c>
       <c r="W237" t="n">
-        <v>1.074016544985437</v>
+        <v>1.322641776236642</v>
       </c>
       <c r="X237" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -18971,64 +18971,64 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>441835.766388</v>
+        <v>326049.647017</v>
       </c>
       <c r="E238" t="n">
-        <v>64485</v>
+        <v>65871</v>
       </c>
       <c r="F238" t="n">
-        <v>44.11803428009902</v>
+        <v>31.4315481565974</v>
       </c>
       <c r="G238" t="n">
-        <v>70.63476524170274</v>
+        <v>48.25485833333334</v>
       </c>
       <c r="H238" t="n">
-        <v>2.253124766700758</v>
+        <v>2.068740154059925</v>
       </c>
       <c r="I238" t="n">
-        <v>1.134610426075074</v>
+        <v>1.199808142707142</v>
       </c>
       <c r="J238" t="n">
-        <v>159.1489389561743</v>
+        <v>99.82676306263988</v>
       </c>
       <c r="K238" t="n">
-        <v>80.14294108660118</v>
+        <v>57.89657195351291</v>
       </c>
       <c r="L238" t="n">
-        <v>39.06634575</v>
+        <v>26.9417363</v>
       </c>
       <c r="M238" t="n">
-        <v>10014.85613757967</v>
+        <v>10373.32445072589</v>
       </c>
       <c r="N238" t="n">
-        <v>11309.88214806346</v>
+        <v>12102.02799798764</v>
       </c>
       <c r="O238" t="n">
-        <v>2776.240729507287</v>
+        <v>3266.154656466307</v>
       </c>
       <c r="P238" t="n">
-        <v>6255.216745976248</v>
+        <v>6756.825287201651</v>
       </c>
       <c r="Q238" t="n">
-        <v>1.036937198466469</v>
+        <v>1.109564436101997</v>
       </c>
       <c r="R238" t="n">
-        <v>1.086154623547246</v>
+        <v>1.109499747347145</v>
       </c>
       <c r="S238" t="n">
-        <v>0.1553052048938462</v>
+        <v>0.1574793831993728</v>
       </c>
       <c r="T238" t="n">
-        <v>0.175387797907474</v>
+        <v>0.1837231558347018</v>
       </c>
       <c r="U238" t="n">
-        <v>0.04305250414061079</v>
+        <v>0.0495841061539419</v>
       </c>
       <c r="V238" t="n">
-        <v>0.0970026633476971</v>
+        <v>0.1025766314038295</v>
       </c>
       <c r="W238" t="n">
-        <v>0.9546865390859003</v>
+        <v>1.000058304434054</v>
       </c>
       <c r="X238" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -19049,64 +19049,64 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>388037.632345</v>
+        <v>273258.47711</v>
       </c>
       <c r="E239" t="n">
-        <v>57884</v>
+        <v>55245</v>
       </c>
       <c r="F239" t="n">
-        <v>44.11803428009902</v>
+        <v>31.4315481565974</v>
       </c>
       <c r="G239" t="n">
-        <v>70.63476524170274</v>
+        <v>48.25485833333334</v>
       </c>
       <c r="H239" t="n">
-        <v>2.253124766700758</v>
+        <v>2.068740154059925</v>
       </c>
       <c r="I239" t="n">
-        <v>1.134610426075074</v>
+        <v>1.199808142707142</v>
       </c>
       <c r="J239" t="n">
-        <v>159.1489389561743</v>
+        <v>99.82676306263988</v>
       </c>
       <c r="K239" t="n">
-        <v>80.14294108660118</v>
+        <v>57.89657195351291</v>
       </c>
       <c r="L239" t="n">
-        <v>39.06634575</v>
+        <v>26.9417363</v>
       </c>
       <c r="M239" t="n">
-        <v>8795.442468751105</v>
+        <v>8693.764486196449</v>
       </c>
       <c r="N239" t="n">
-        <v>9932.785493380832</v>
+        <v>10142.5711419349</v>
       </c>
       <c r="O239" t="n">
-        <v>2438.204331678617</v>
+        <v>2737.32683226976</v>
       </c>
       <c r="P239" t="n">
-        <v>5493.578565982162</v>
+        <v>5662.817932702112</v>
       </c>
       <c r="Q239" t="n">
-        <v>1.382973240150742</v>
+        <v>1.412182361631447</v>
       </c>
       <c r="R239" t="n">
-        <v>1.792851390695658</v>
+        <v>1.711113175989593</v>
       </c>
       <c r="S239" t="n">
-        <v>0.1519494587235005</v>
+        <v>0.157367444767788</v>
       </c>
       <c r="T239" t="n">
-        <v>0.171598118536743</v>
+        <v>0.183592562981897</v>
       </c>
       <c r="U239" t="n">
-        <v>0.04212225021903492</v>
+        <v>0.04954886111448566</v>
       </c>
       <c r="V239" t="n">
-        <v>0.09490668519767401</v>
+        <v>0.1025037185754749</v>
       </c>
       <c r="W239" t="n">
-        <v>0.7713819713825384</v>
+        <v>0.8253003842453235</v>
       </c>
       <c r="X239" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -19127,64 +19127,64 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>254407.872441</v>
+        <v>210692.184125</v>
       </c>
       <c r="E240" t="n">
-        <v>47858</v>
+        <v>47927</v>
       </c>
       <c r="F240" t="n">
-        <v>44.11803428009902</v>
+        <v>31.4315481565974</v>
       </c>
       <c r="G240" t="n">
-        <v>70.63476524170274</v>
+        <v>48.25485833333334</v>
       </c>
       <c r="H240" t="n">
-        <v>2.253124766700758</v>
+        <v>2.068740154059925</v>
       </c>
       <c r="I240" t="n">
-        <v>1.134610426075074</v>
+        <v>1.199808142707142</v>
       </c>
       <c r="J240" t="n">
-        <v>159.1489389561743</v>
+        <v>99.82676306263988</v>
       </c>
       <c r="K240" t="n">
-        <v>80.14294108660118</v>
+        <v>57.89657195351291</v>
       </c>
       <c r="L240" t="n">
-        <v>39.06634575</v>
+        <v>26.9417363</v>
       </c>
       <c r="M240" t="n">
-        <v>5766.527829091415</v>
+        <v>6703.207334086605</v>
       </c>
       <c r="N240" t="n">
-        <v>6512.200400545526</v>
+        <v>7820.289745950784</v>
       </c>
       <c r="O240" t="n">
-        <v>1598.552111686134</v>
+        <v>2110.578142184112</v>
       </c>
       <c r="P240" t="n">
-        <v>3601.737353701824</v>
+        <v>4366.23775101747</v>
       </c>
       <c r="Q240" t="n">
-        <v>1.413363943806297</v>
+        <v>1.697262810910893</v>
       </c>
       <c r="R240" t="n">
-        <v>1.148362327534493</v>
+        <v>1.15001799640072</v>
       </c>
       <c r="S240" t="n">
-        <v>0.1204924532803589</v>
+        <v>0.1398628608944145</v>
       </c>
       <c r="T240" t="n">
-        <v>0.1360733921297489</v>
+        <v>0.1631708587216138</v>
       </c>
       <c r="U240" t="n">
-        <v>0.03340198319374261</v>
+        <v>0.04403735143414175</v>
       </c>
       <c r="V240" t="n">
-        <v>0.07525883559074396</v>
+        <v>0.09110183719025748</v>
       </c>
       <c r="W240" t="n">
-        <v>1.230764811695587</v>
+        <v>1.475857609379086</v>
       </c>
       <c r="X240" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -19205,64 +19205,64 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>675237.182437</v>
+        <v>706772.54841</v>
       </c>
       <c r="E241" t="n">
-        <v>39998</v>
+        <v>44632</v>
       </c>
       <c r="F241" t="n">
-        <v>44.11803428009902</v>
+        <v>31.4315481565974</v>
       </c>
       <c r="G241" t="n">
-        <v>70.63476524170274</v>
+        <v>48.25485833333334</v>
       </c>
       <c r="H241" t="n">
-        <v>2.253124766700758</v>
+        <v>2.068740154059925</v>
       </c>
       <c r="I241" t="n">
-        <v>1.134610426075074</v>
+        <v>1.199808142707142</v>
       </c>
       <c r="J241" t="n">
-        <v>159.1489389561743</v>
+        <v>99.82676306263988</v>
       </c>
       <c r="K241" t="n">
-        <v>80.14294108660118</v>
+        <v>57.89657195351291</v>
       </c>
       <c r="L241" t="n">
-        <v>39.06634575</v>
+        <v>26.9417363</v>
       </c>
       <c r="M241" t="n">
-        <v>15305.24180089296</v>
+        <v>22486.0877004447</v>
       </c>
       <c r="N241" t="n">
-        <v>17284.37020339943</v>
+        <v>26233.37043091763</v>
       </c>
       <c r="O241" t="n">
-        <v>4242.80040360774</v>
+        <v>7079.990643055413</v>
       </c>
       <c r="P241" t="n">
-        <v>9559.558669536573</v>
+        <v>14646.66093365728</v>
       </c>
       <c r="Q241" t="n">
-        <v>1.828528645208954</v>
+        <v>2.775251208393823</v>
       </c>
       <c r="R241" t="n">
-        <v>3.356100016781339</v>
+        <v>3.744923644906863</v>
       </c>
       <c r="S241" t="n">
-        <v>0.3826501775312005</v>
+        <v>0.5038108912987251</v>
       </c>
       <c r="T241" t="n">
-        <v>0.4321308616280672</v>
+        <v>0.5877704434243957</v>
       </c>
       <c r="U241" t="n">
-        <v>0.1060753138558863</v>
+        <v>0.1586303693102575</v>
       </c>
       <c r="V241" t="n">
-        <v>0.2390009167842535</v>
+        <v>0.3281650146454849</v>
       </c>
       <c r="W241" t="n">
-        <v>0.5448373517075934</v>
+        <v>0.7410701716624302</v>
       </c>
       <c r="X241" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -19283,64 +19283,64 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1134798.9853</v>
+        <v>891317.4146429999</v>
       </c>
       <c r="E242" t="n">
-        <v>389188</v>
+        <v>411323</v>
       </c>
       <c r="F242" t="n">
-        <v>44.11803428009902</v>
+        <v>31.4315481565974</v>
       </c>
       <c r="G242" t="n">
-        <v>70.63476524170274</v>
+        <v>48.25485833333334</v>
       </c>
       <c r="H242" t="n">
-        <v>2.253124766700758</v>
+        <v>2.068740154059925</v>
       </c>
       <c r="I242" t="n">
-        <v>1.134610426075074</v>
+        <v>1.199808142707142</v>
       </c>
       <c r="J242" t="n">
-        <v>159.1489389561743</v>
+        <v>99.82676306263988</v>
       </c>
       <c r="K242" t="n">
-        <v>80.14294108660118</v>
+        <v>57.89657195351291</v>
       </c>
       <c r="L242" t="n">
-        <v>39.06634575</v>
+        <v>26.9417363</v>
       </c>
       <c r="M242" t="n">
-        <v>25721.88457208508</v>
+        <v>28357.41371065474</v>
       </c>
       <c r="N242" t="n">
-        <v>29047.99421379205</v>
+        <v>33083.14671029572</v>
       </c>
       <c r="O242" t="n">
-        <v>7130.421306877173</v>
+        <v>8928.64185212247</v>
       </c>
       <c r="P242" t="n">
-        <v>16065.72884353575</v>
+        <v>18471.03992070573</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.5561761017757019</v>
+        <v>0.6334363548953589</v>
       </c>
       <c r="R242" t="n">
-        <v>0.7513383385489766</v>
+        <v>0.7940705762433083</v>
       </c>
       <c r="S242" t="n">
-        <v>0.06609115535958222</v>
+        <v>0.06894195975098583</v>
       </c>
       <c r="T242" t="n">
-        <v>0.07463743541371279</v>
+        <v>0.08043106441967925</v>
       </c>
       <c r="U242" t="n">
-        <v>0.01832127739518478</v>
+        <v>0.02170713004651446</v>
       </c>
       <c r="V242" t="n">
-        <v>0.04128012385668558</v>
+        <v>0.04490641155662517</v>
       </c>
       <c r="W242" t="n">
-        <v>0.740247200548581</v>
+        <v>0.7977078786776125</v>
       </c>
       <c r="X242" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -19361,64 +19361,64 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>4775359.805141</v>
+        <v>3898542.6014</v>
       </c>
       <c r="E243" t="n">
-        <v>792146</v>
+        <v>816313</v>
       </c>
       <c r="F243" t="n">
-        <v>44.11803428009902</v>
+        <v>31.4315481565974</v>
       </c>
       <c r="G243" t="n">
-        <v>70.63476524170274</v>
+        <v>48.25485833333334</v>
       </c>
       <c r="H243" t="n">
-        <v>2.253124766700758</v>
+        <v>2.068740154059925</v>
       </c>
       <c r="I243" t="n">
-        <v>1.134610426075074</v>
+        <v>1.199808142707142</v>
       </c>
       <c r="J243" t="n">
-        <v>159.1489389561743</v>
+        <v>99.82676306263988</v>
       </c>
       <c r="K243" t="n">
-        <v>80.14294108660118</v>
+        <v>57.89657195351291</v>
       </c>
       <c r="L243" t="n">
-        <v>39.06634575</v>
+        <v>26.9417363</v>
       </c>
       <c r="M243" t="n">
-        <v>108240.5388876334</v>
+        <v>124032.7896665092</v>
       </c>
       <c r="N243" t="n">
-        <v>122237.1766148872</v>
+        <v>144702.7228679393</v>
       </c>
       <c r="O243" t="n">
-        <v>30005.60252843418</v>
+        <v>39053.08037438537</v>
       </c>
       <c r="P243" t="n">
-        <v>67606.36619659394</v>
+        <v>80790.67551022062</v>
       </c>
       <c r="Q243" t="n">
-        <v>1.522038412966493</v>
+        <v>1.801768568000655</v>
       </c>
       <c r="R243" t="n">
-        <v>1.446627987457563</v>
+        <v>1.490762097297021</v>
       </c>
       <c r="S243" t="n">
-        <v>0.1366421579956641</v>
+        <v>0.1519426857914907</v>
       </c>
       <c r="T243" t="n">
-        <v>0.1543114231655367</v>
+        <v>0.177263773660274</v>
       </c>
       <c r="U243" t="n">
-        <v>0.03787887905567178</v>
+        <v>0.04784081642015424</v>
       </c>
       <c r="V243" t="n">
-        <v>0.08534584053519671</v>
+        <v>0.09897021793138247</v>
       </c>
       <c r="W243" t="n">
-        <v>1.052128415987211</v>
+        <v>1.208622469854537</v>
       </c>
       <c r="X243" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -19439,64 +19439,64 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>2437003.287394</v>
+        <v>1944288.433708</v>
       </c>
       <c r="E244" t="n">
-        <v>288746</v>
+        <v>288817</v>
       </c>
       <c r="F244" t="n">
-        <v>44.11803428009902</v>
+        <v>31.4315481565974</v>
       </c>
       <c r="G244" t="n">
-        <v>70.63476524170274</v>
+        <v>48.25485833333334</v>
       </c>
       <c r="H244" t="n">
-        <v>2.253124766700758</v>
+        <v>2.068740154059925</v>
       </c>
       <c r="I244" t="n">
-        <v>1.134610426075074</v>
+        <v>1.199808142707142</v>
       </c>
       <c r="J244" t="n">
-        <v>159.1489389561743</v>
+        <v>99.82676306263988</v>
       </c>
       <c r="K244" t="n">
-        <v>80.14294108660118</v>
+        <v>57.89657195351291</v>
       </c>
       <c r="L244" t="n">
-        <v>39.06634575</v>
+        <v>26.9417363</v>
       </c>
       <c r="M244" t="n">
-        <v>55238.25635389417</v>
+        <v>61857.8640804207</v>
       </c>
       <c r="N244" t="n">
-        <v>62381.14265893426</v>
+        <v>72166.41169886292</v>
       </c>
       <c r="O244" t="n">
-        <v>15312.72092278976</v>
+        <v>19476.62504581048</v>
       </c>
       <c r="P244" t="n">
-        <v>34501.47075671449</v>
+        <v>40292.07629783736</v>
       </c>
       <c r="Q244" t="n">
-        <v>1.583950416018217</v>
+        <v>1.832413017150538</v>
       </c>
       <c r="R244" t="n">
-        <v>1.083584453209143</v>
+        <v>1.083850896713738</v>
       </c>
       <c r="S244" t="n">
-        <v>0.1913039708044239</v>
+        <v>0.2141766727042408</v>
       </c>
       <c r="T244" t="n">
-        <v>0.2160415820788314</v>
+        <v>0.2498689886636276</v>
       </c>
       <c r="U244" t="n">
-        <v>0.05303180277056568</v>
+        <v>0.06743586785338286</v>
       </c>
       <c r="V244" t="n">
-        <v>0.1194872682451514</v>
+        <v>0.139507287652172</v>
       </c>
       <c r="W244" t="n">
-        <v>1.461769233885915</v>
+        <v>1.690650460046172</v>
       </c>
       <c r="X244" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -19517,64 +19517,64 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1692653.34515624</v>
+        <v>1075673.365558</v>
       </c>
       <c r="E245" t="n">
-        <v>134465</v>
+        <v>133622</v>
       </c>
       <c r="F245" t="n">
-        <v>64.94087545664176</v>
+        <v>44.11803428009902</v>
       </c>
       <c r="G245" t="n">
-        <v>95.09325</v>
+        <v>70.63476524170274</v>
       </c>
       <c r="H245" t="n">
-        <v>1.904155048720863</v>
+        <v>2.253124766700758</v>
       </c>
       <c r="I245" t="n">
-        <v>1.159401326959528</v>
+        <v>1.134610426075074</v>
       </c>
       <c r="J245" t="n">
-        <v>181.0722920867752</v>
+        <v>159.1489389561743</v>
       </c>
       <c r="K245" t="n">
-        <v>110.2512402348941</v>
+        <v>80.14294108660118</v>
       </c>
       <c r="L245" t="n">
-        <v>61.80601691</v>
+        <v>39.06634575</v>
       </c>
       <c r="M245" t="n">
-        <v>26064.52920836203</v>
+        <v>24381.71562061685</v>
       </c>
       <c r="N245" t="n">
-        <v>27386.54632316834</v>
+        <v>27534.52735102566</v>
       </c>
       <c r="O245" t="n">
-        <v>9347.942336451293</v>
+        <v>6758.910066338639</v>
       </c>
       <c r="P245" t="n">
-        <v>17799.93159510523</v>
+        <v>15228.66766637065</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.324163362552138</v>
+        <v>2.336721794683021</v>
       </c>
       <c r="R245" t="n">
-        <v>1.275686393563934</v>
+        <v>1.267688746371174</v>
       </c>
       <c r="S245" t="n">
-        <v>0.1938387625654411</v>
+        <v>0.1824678243149845</v>
       </c>
       <c r="T245" t="n">
-        <v>0.2036704445258494</v>
+        <v>0.2060628291076743</v>
       </c>
       <c r="U245" t="n">
-        <v>0.06951952059235707</v>
+        <v>0.05058231478602804</v>
       </c>
       <c r="V245" t="n">
-        <v>0.1323759461205907</v>
+        <v>0.1139682662014537</v>
       </c>
       <c r="W245" t="n">
-        <v>1.821892413588448</v>
+        <v>1.843293001828729</v>
       </c>
       <c r="X245" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -19595,64 +19595,64 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>1245520.963240628</v>
+        <v>805369.000672</v>
       </c>
       <c r="E246" t="n">
-        <v>61303</v>
+        <v>59111</v>
       </c>
       <c r="F246" t="n">
-        <v>64.94087545664176</v>
+        <v>44.11803428009902</v>
       </c>
       <c r="G246" t="n">
-        <v>95.09325</v>
+        <v>70.63476524170274</v>
       </c>
       <c r="H246" t="n">
-        <v>1.904155048720863</v>
+        <v>2.253124766700758</v>
       </c>
       <c r="I246" t="n">
-        <v>1.159401326959528</v>
+        <v>1.134610426075074</v>
       </c>
       <c r="J246" t="n">
-        <v>181.0722920867752</v>
+        <v>159.1489389561743</v>
       </c>
       <c r="K246" t="n">
-        <v>110.2512402348941</v>
+        <v>80.14294108660118</v>
       </c>
       <c r="L246" t="n">
-        <v>61.80601691</v>
+        <v>39.06634575</v>
       </c>
       <c r="M246" t="n">
-        <v>19179.30663057059</v>
+        <v>18254.87045861628</v>
       </c>
       <c r="N246" t="n">
-        <v>20152.09886529846</v>
+        <v>20615.41680468028</v>
       </c>
       <c r="O246" t="n">
-        <v>6878.583956090521</v>
+        <v>5060.473578738585</v>
       </c>
       <c r="P246" t="n">
-        <v>13097.89036804009</v>
+        <v>11401.87835149072</v>
       </c>
       <c r="Q246" t="n">
-        <v>1.28959918466659</v>
+        <v>1.319248425713986</v>
       </c>
       <c r="R246" t="n">
-        <v>1.273881511958939</v>
+        <v>1.228331567026162</v>
       </c>
       <c r="S246" t="n">
-        <v>0.3128608164456975</v>
+        <v>0.3088235769757961</v>
       </c>
       <c r="T246" t="n">
-        <v>0.32872940745638</v>
+        <v>0.3487577067665963</v>
       </c>
       <c r="U246" t="n">
-        <v>0.1122063187134483</v>
+        <v>0.08560967635023237</v>
       </c>
       <c r="V246" t="n">
-        <v>0.2136582282765948</v>
+        <v>0.1928892820539447</v>
       </c>
       <c r="W246" t="n">
-        <v>1.012338410252521</v>
+        <v>1.074016544985437</v>
       </c>
       <c r="X246" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -19673,64 +19673,64 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>569013.2253962541</v>
+        <v>441835.766388</v>
       </c>
       <c r="E247" t="n">
-        <v>64965</v>
+        <v>64485</v>
       </c>
       <c r="F247" t="n">
-        <v>64.94087545664176</v>
+        <v>44.11803428009902</v>
       </c>
       <c r="G247" t="n">
-        <v>95.09325</v>
+        <v>70.63476524170274</v>
       </c>
       <c r="H247" t="n">
-        <v>1.904155048720863</v>
+        <v>2.253124766700758</v>
       </c>
       <c r="I247" t="n">
-        <v>1.159401326959528</v>
+        <v>1.134610426075074</v>
       </c>
       <c r="J247" t="n">
-        <v>181.0722920867752</v>
+        <v>159.1489389561743</v>
       </c>
       <c r="K247" t="n">
-        <v>110.2512402348941</v>
+        <v>80.14294108660118</v>
       </c>
       <c r="L247" t="n">
-        <v>61.80601691</v>
+        <v>39.06634575</v>
       </c>
       <c r="M247" t="n">
-        <v>8762.019627779115</v>
+        <v>10014.85613757967</v>
       </c>
       <c r="N247" t="n">
-        <v>9206.437396294821</v>
+        <v>11309.88214806346</v>
       </c>
       <c r="O247" t="n">
-        <v>3142.464365136363</v>
+        <v>2776.240729507287</v>
       </c>
       <c r="P247" t="n">
-        <v>5983.739386299807</v>
+        <v>6255.216745976248</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.8440846046486424</v>
+        <v>1.036937198466469</v>
       </c>
       <c r="R247" t="n">
-        <v>1.094239514906518</v>
+        <v>1.086154623547246</v>
       </c>
       <c r="S247" t="n">
-        <v>0.134872925848982</v>
+        <v>0.1553052048938462</v>
       </c>
       <c r="T247" t="n">
-        <v>0.1417138058384487</v>
+        <v>0.175387797907474</v>
       </c>
       <c r="U247" t="n">
-        <v>0.04837165189157797</v>
+        <v>0.04305250414061079</v>
       </c>
       <c r="V247" t="n">
-        <v>0.09210712516431628</v>
+        <v>0.0970026633476971</v>
       </c>
       <c r="W247" t="n">
-        <v>0.7713892554142985</v>
+        <v>0.9546865390859003</v>
       </c>
       <c r="X247" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -19751,64 +19751,64 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>493068.3676726958</v>
+        <v>388037.632345</v>
       </c>
       <c r="E248" t="n">
-        <v>56517</v>
+        <v>57884</v>
       </c>
       <c r="F248" t="n">
-        <v>64.94087545664176</v>
+        <v>44.11803428009902</v>
       </c>
       <c r="G248" t="n">
-        <v>95.09325</v>
+        <v>70.63476524170274</v>
       </c>
       <c r="H248" t="n">
-        <v>1.904155048720863</v>
+        <v>2.253124766700758</v>
       </c>
       <c r="I248" t="n">
-        <v>1.159401326959528</v>
+        <v>1.134610426075074</v>
       </c>
       <c r="J248" t="n">
-        <v>181.0722920867752</v>
+        <v>159.1489389561743</v>
       </c>
       <c r="K248" t="n">
-        <v>110.2512402348941</v>
+        <v>80.14294108660118</v>
       </c>
       <c r="L248" t="n">
-        <v>61.80601691</v>
+        <v>39.06634575</v>
       </c>
       <c r="M248" t="n">
-        <v>7592.573463255765</v>
+        <v>8795.442468751105</v>
       </c>
       <c r="N248" t="n">
-        <v>7977.675836815155</v>
+        <v>9932.785493380832</v>
       </c>
       <c r="O248" t="n">
-        <v>2723.047032708919</v>
+        <v>2438.204331678617</v>
       </c>
       <c r="P248" t="n">
-        <v>5185.103755237053</v>
+        <v>5493.578565982162</v>
       </c>
       <c r="Q248" t="n">
-        <v>1.110757119265771</v>
+        <v>1.382973240150742</v>
       </c>
       <c r="R248" t="n">
-        <v>1.750511057424271</v>
+        <v>1.792851390695658</v>
       </c>
       <c r="S248" t="n">
-        <v>0.1343414098988935</v>
+        <v>0.1519494587235005</v>
       </c>
       <c r="T248" t="n">
-        <v>0.1411553309060133</v>
+        <v>0.171598118536743</v>
       </c>
       <c r="U248" t="n">
-        <v>0.04818102575700973</v>
+        <v>0.04212225021903492</v>
       </c>
       <c r="V248" t="n">
-        <v>0.09174414344776001</v>
+        <v>0.09490668519767401</v>
       </c>
       <c r="W248" t="n">
-        <v>0.6345330493942476</v>
+        <v>0.7713819713825384</v>
       </c>
       <c r="X248" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -19829,64 +19829,64 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>440824.3353131817</v>
+        <v>254407.872441</v>
       </c>
       <c r="E249" t="n">
-        <v>49836</v>
+        <v>47858</v>
       </c>
       <c r="F249" t="n">
-        <v>64.94087545664176</v>
+        <v>44.11803428009902</v>
       </c>
       <c r="G249" t="n">
-        <v>95.09325</v>
+        <v>70.63476524170274</v>
       </c>
       <c r="H249" t="n">
-        <v>1.904155048720863</v>
+        <v>2.253124766700758</v>
       </c>
       <c r="I249" t="n">
-        <v>1.159401326959528</v>
+        <v>1.134610426075074</v>
       </c>
       <c r="J249" t="n">
-        <v>181.0722920867752</v>
+        <v>159.1489389561743</v>
       </c>
       <c r="K249" t="n">
-        <v>110.2512402348941</v>
+        <v>80.14294108660118</v>
       </c>
       <c r="L249" t="n">
-        <v>61.80601691</v>
+        <v>39.06634575</v>
       </c>
       <c r="M249" t="n">
-        <v>6788.087351971428</v>
+        <v>5766.527829091415</v>
       </c>
       <c r="N249" t="n">
-        <v>7132.385443234376</v>
+        <v>6512.200400545526</v>
       </c>
       <c r="O249" t="n">
-        <v>2434.521208258222</v>
+        <v>1598.552111686134</v>
       </c>
       <c r="P249" t="n">
-        <v>4635.70584992291</v>
+        <v>3601.737353701824</v>
       </c>
       <c r="Q249" t="n">
-        <v>1.547964712196496</v>
+        <v>1.413363943806297</v>
       </c>
       <c r="R249" t="n">
-        <v>1.195824835032993</v>
+        <v>1.148362327534493</v>
       </c>
       <c r="S249" t="n">
-        <v>0.1362085109553622</v>
+        <v>0.1204924532803589</v>
       </c>
       <c r="T249" t="n">
-        <v>0.143117133061128</v>
+        <v>0.1360733921297489</v>
       </c>
       <c r="U249" t="n">
-        <v>0.04885065431130553</v>
+        <v>0.03340198319374261</v>
       </c>
       <c r="V249" t="n">
-        <v>0.09301922004019002</v>
+        <v>0.07525883559074396</v>
       </c>
       <c r="W249" t="n">
-        <v>1.294474463857231</v>
+        <v>1.230764811695587</v>
       </c>
       <c r="X249" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -19907,64 +19907,64 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1316020.444710105</v>
+        <v>675237.182437</v>
       </c>
       <c r="E250" t="n">
-        <v>44224</v>
+        <v>39998</v>
       </c>
       <c r="F250" t="n">
-        <v>64.94087545664176</v>
+        <v>44.11803428009902</v>
       </c>
       <c r="G250" t="n">
-        <v>95.09325</v>
+        <v>70.63476524170274</v>
       </c>
       <c r="H250" t="n">
-        <v>1.904155048720863</v>
+        <v>2.253124766700758</v>
       </c>
       <c r="I250" t="n">
-        <v>1.159401326959528</v>
+        <v>1.134610426075074</v>
       </c>
       <c r="J250" t="n">
-        <v>181.0722920867752</v>
+        <v>159.1489389561743</v>
       </c>
       <c r="K250" t="n">
-        <v>110.2512402348941</v>
+        <v>80.14294108660118</v>
       </c>
       <c r="L250" t="n">
-        <v>61.80601691</v>
+        <v>39.06634575</v>
       </c>
       <c r="M250" t="n">
-        <v>20264.90150396503</v>
+        <v>15305.24180089296</v>
       </c>
       <c r="N250" t="n">
-        <v>21292.75611833154</v>
+        <v>17284.37020339943</v>
       </c>
       <c r="O250" t="n">
-        <v>7267.928348084473</v>
+        <v>4242.80040360774</v>
       </c>
       <c r="P250" t="n">
-        <v>13839.26245774653</v>
+        <v>9559.558669536573</v>
       </c>
       <c r="Q250" t="n">
-        <v>2.252579297923158</v>
+        <v>1.828528645208954</v>
       </c>
       <c r="R250" t="n">
-        <v>3.710689713039101</v>
+        <v>3.356100016781339</v>
       </c>
       <c r="S250" t="n">
-        <v>0.4582331201149834</v>
+        <v>0.3826501775312005</v>
       </c>
       <c r="T250" t="n">
-        <v>0.4814751293038065</v>
+        <v>0.4321308616280672</v>
       </c>
       <c r="U250" t="n">
-        <v>0.1643435317493776</v>
+        <v>0.1060753138558863</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3129355657051947</v>
+        <v>0.2390009167842535</v>
       </c>
       <c r="W250" t="n">
-        <v>0.6070513764618353</v>
+        <v>0.5448373517075934</v>
       </c>
       <c r="X250" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -19985,64 +19985,64 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1641216.302236897</v>
+        <v>1134798.9853</v>
       </c>
       <c r="E251" t="n">
-        <v>372674</v>
+        <v>389188</v>
       </c>
       <c r="F251" t="n">
-        <v>64.94087545664176</v>
+        <v>44.11803428009902</v>
       </c>
       <c r="G251" t="n">
-        <v>95.09325</v>
+        <v>70.63476524170274</v>
       </c>
       <c r="H251" t="n">
-        <v>1.904155048720863</v>
+        <v>2.253124766700758</v>
       </c>
       <c r="I251" t="n">
-        <v>1.159401326959528</v>
+        <v>1.134610426075074</v>
       </c>
       <c r="J251" t="n">
-        <v>181.0722920867752</v>
+        <v>159.1489389561743</v>
       </c>
       <c r="K251" t="n">
-        <v>110.2512402348941</v>
+        <v>80.14294108660118</v>
       </c>
       <c r="L251" t="n">
-        <v>61.80601691</v>
+        <v>39.06634575</v>
       </c>
       <c r="M251" t="n">
-        <v>25272.46962250558</v>
+        <v>25721.88457208508</v>
       </c>
       <c r="N251" t="n">
-        <v>26554.31273991957</v>
+        <v>29047.99421379205</v>
       </c>
       <c r="O251" t="n">
-        <v>9063.873237161974</v>
+        <v>7130.421306877173</v>
       </c>
       <c r="P251" t="n">
-        <v>17259.01998550788</v>
+        <v>16065.72884353575</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.5084300842365573</v>
+        <v>0.5561761017757019</v>
       </c>
       <c r="R251" t="n">
-        <v>0.7194575988478609</v>
+        <v>0.7513383385489766</v>
       </c>
       <c r="S251" t="n">
-        <v>0.06781387921482471</v>
+        <v>0.06609115535958222</v>
       </c>
       <c r="T251" t="n">
-        <v>0.07125346211412539</v>
+        <v>0.07463743541371279</v>
       </c>
       <c r="U251" t="n">
-        <v>0.02432118483490121</v>
+        <v>0.01832127739518478</v>
       </c>
       <c r="V251" t="n">
-        <v>0.04631130689425041</v>
+        <v>0.04128012385668558</v>
       </c>
       <c r="W251" t="n">
-        <v>0.7066852654704837</v>
+        <v>0.740247200548581</v>
       </c>
       <c r="X251" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -20063,64 +20063,64 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>7398316.983726001</v>
+        <v>4775359.805141</v>
       </c>
       <c r="E252" t="n">
-        <v>783984</v>
+        <v>792146</v>
       </c>
       <c r="F252" t="n">
-        <v>64.94087545664176</v>
+        <v>44.11803428009902</v>
       </c>
       <c r="G252" t="n">
-        <v>95.09325</v>
+        <v>70.63476524170274</v>
       </c>
       <c r="H252" t="n">
-        <v>1.904155048720863</v>
+        <v>2.253124766700758</v>
       </c>
       <c r="I252" t="n">
-        <v>1.159401326959528</v>
+        <v>1.134610426075074</v>
       </c>
       <c r="J252" t="n">
-        <v>181.0722920867752</v>
+        <v>159.1489389561743</v>
       </c>
       <c r="K252" t="n">
-        <v>110.2512402348941</v>
+        <v>80.14294108660118</v>
       </c>
       <c r="L252" t="n">
-        <v>61.80601691</v>
+        <v>39.06634575</v>
       </c>
       <c r="M252" t="n">
-        <v>113923.8874084095</v>
+        <v>108240.5388876334</v>
       </c>
       <c r="N252" t="n">
-        <v>119702.2127230622</v>
+        <v>122237.1766148872</v>
       </c>
       <c r="O252" t="n">
-        <v>40858.36048389176</v>
+        <v>30005.60252843418</v>
       </c>
       <c r="P252" t="n">
-        <v>77800.65339785948</v>
+        <v>67606.36619659394</v>
       </c>
       <c r="Q252" t="n">
-        <v>1.490474264270582</v>
+        <v>1.522038412966493</v>
       </c>
       <c r="R252" t="n">
-        <v>1.431722430106231</v>
+        <v>1.446627987457563</v>
       </c>
       <c r="S252" t="n">
-        <v>0.1453140464708585</v>
+        <v>0.1366421579956641</v>
       </c>
       <c r="T252" t="n">
-        <v>0.15268450978982</v>
+        <v>0.1543114231655367</v>
       </c>
       <c r="U252" t="n">
-        <v>0.05211631931760311</v>
+        <v>0.03787887905567178</v>
       </c>
       <c r="V252" t="n">
-        <v>0.09923755254936259</v>
+        <v>0.08534584053519671</v>
       </c>
       <c r="W252" t="n">
-        <v>1.041035771270268</v>
+        <v>1.052128415987211</v>
       </c>
       <c r="X252" t="inlineStr">
         <is>
@@ -20133,74 +20133,776 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Total Manufactura</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>2437003.287394</v>
+      </c>
+      <c r="E253" t="n">
+        <v>288746</v>
+      </c>
+      <c r="F253" t="n">
+        <v>44.11803428009902</v>
+      </c>
+      <c r="G253" t="n">
+        <v>70.63476524170274</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2.253124766700758</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1.134610426075074</v>
+      </c>
+      <c r="J253" t="n">
+        <v>159.1489389561743</v>
+      </c>
+      <c r="K253" t="n">
+        <v>80.14294108660118</v>
+      </c>
+      <c r="L253" t="n">
+        <v>39.06634575</v>
+      </c>
+      <c r="M253" t="n">
+        <v>55238.25635389417</v>
+      </c>
+      <c r="N253" t="n">
+        <v>62381.14265893426</v>
+      </c>
+      <c r="O253" t="n">
+        <v>15312.72092278976</v>
+      </c>
+      <c r="P253" t="n">
+        <v>34501.47075671449</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>1.583950416018217</v>
+      </c>
+      <c r="R253" t="n">
+        <v>1.083584453209143</v>
+      </c>
+      <c r="S253" t="n">
+        <v>0.1913039708044239</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0.2160415820788314</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0.05303180277056568</v>
+      </c>
+      <c r="V253" t="n">
+        <v>0.1194872682451514</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.461769233885915</v>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
         <v>2021</v>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Alimentos, bebidas y tabaco</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1692653.34515624</v>
+      </c>
+      <c r="E254" t="n">
+        <v>134465</v>
+      </c>
+      <c r="F254" t="n">
+        <v>64.94087545664176</v>
+      </c>
+      <c r="G254" t="n">
+        <v>95.09325</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1.904155048720863</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.159401326959528</v>
+      </c>
+      <c r="J254" t="n">
+        <v>181.0722920867752</v>
+      </c>
+      <c r="K254" t="n">
+        <v>110.2512402348941</v>
+      </c>
+      <c r="L254" t="n">
+        <v>61.80601691</v>
+      </c>
+      <c r="M254" t="n">
+        <v>26064.52920836203</v>
+      </c>
+      <c r="N254" t="n">
+        <v>27386.54632316834</v>
+      </c>
+      <c r="O254" t="n">
+        <v>9347.942336451293</v>
+      </c>
+      <c r="P254" t="n">
+        <v>17799.93159510523</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>2.324163362552138</v>
+      </c>
+      <c r="R254" t="n">
+        <v>1.275686393563934</v>
+      </c>
+      <c r="S254" t="n">
+        <v>0.1938387625654411</v>
+      </c>
+      <c r="T254" t="n">
+        <v>0.2036704445258494</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0.06951952059235707</v>
+      </c>
+      <c r="V254" t="n">
+        <v>0.1323759461205907</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.821892413588448</v>
+      </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Combustibles, quimicos y plasticos</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>1245520.963240628</v>
+      </c>
+      <c r="E255" t="n">
+        <v>61303</v>
+      </c>
+      <c r="F255" t="n">
+        <v>64.94087545664176</v>
+      </c>
+      <c r="G255" t="n">
+        <v>95.09325</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1.904155048720863</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1.159401326959528</v>
+      </c>
+      <c r="J255" t="n">
+        <v>181.0722920867752</v>
+      </c>
+      <c r="K255" t="n">
+        <v>110.2512402348941</v>
+      </c>
+      <c r="L255" t="n">
+        <v>61.80601691</v>
+      </c>
+      <c r="M255" t="n">
+        <v>19179.30663057059</v>
+      </c>
+      <c r="N255" t="n">
+        <v>20152.09886529846</v>
+      </c>
+      <c r="O255" t="n">
+        <v>6878.583956090521</v>
+      </c>
+      <c r="P255" t="n">
+        <v>13097.89036804009</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>1.28959918466659</v>
+      </c>
+      <c r="R255" t="n">
+        <v>1.273881511958939</v>
+      </c>
+      <c r="S255" t="n">
+        <v>0.3128608164456975</v>
+      </c>
+      <c r="T255" t="n">
+        <v>0.32872940745638</v>
+      </c>
+      <c r="U255" t="n">
+        <v>0.1122063187134483</v>
+      </c>
+      <c r="V255" t="n">
+        <v>0.2136582282765948</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.012338410252521</v>
+      </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Comunicaciones</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>569013.2253962541</v>
+      </c>
+      <c r="E256" t="n">
+        <v>64965</v>
+      </c>
+      <c r="F256" t="n">
+        <v>64.94087545664176</v>
+      </c>
+      <c r="G256" t="n">
+        <v>95.09325</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1.904155048720863</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1.159401326959528</v>
+      </c>
+      <c r="J256" t="n">
+        <v>181.0722920867752</v>
+      </c>
+      <c r="K256" t="n">
+        <v>110.2512402348941</v>
+      </c>
+      <c r="L256" t="n">
+        <v>61.80601691</v>
+      </c>
+      <c r="M256" t="n">
+        <v>8762.019627779115</v>
+      </c>
+      <c r="N256" t="n">
+        <v>9206.437396294821</v>
+      </c>
+      <c r="O256" t="n">
+        <v>3142.464365136363</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5983.739386299807</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0.8440846046486424</v>
+      </c>
+      <c r="R256" t="n">
+        <v>1.094239514906518</v>
+      </c>
+      <c r="S256" t="n">
+        <v>0.134872925848982</v>
+      </c>
+      <c r="T256" t="n">
+        <v>0.1417138058384487</v>
+      </c>
+      <c r="U256" t="n">
+        <v>0.04837165189157797</v>
+      </c>
+      <c r="V256" t="n">
+        <v>0.09210712516431628</v>
+      </c>
+      <c r="W256" t="n">
+        <v>0.7713892554142985</v>
+      </c>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Electricidad, gas y agua</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>493068.3676726958</v>
+      </c>
+      <c r="E257" t="n">
+        <v>56517</v>
+      </c>
+      <c r="F257" t="n">
+        <v>64.94087545664176</v>
+      </c>
+      <c r="G257" t="n">
+        <v>95.09325</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1.904155048720863</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1.159401326959528</v>
+      </c>
+      <c r="J257" t="n">
+        <v>181.0722920867752</v>
+      </c>
+      <c r="K257" t="n">
+        <v>110.2512402348941</v>
+      </c>
+      <c r="L257" t="n">
+        <v>61.80601691</v>
+      </c>
+      <c r="M257" t="n">
+        <v>7592.573463255765</v>
+      </c>
+      <c r="N257" t="n">
+        <v>7977.675836815155</v>
+      </c>
+      <c r="O257" t="n">
+        <v>2723.047032708919</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5185.103755237053</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>1.110757119265771</v>
+      </c>
+      <c r="R257" t="n">
+        <v>1.750511057424271</v>
+      </c>
+      <c r="S257" t="n">
+        <v>0.1343414098988935</v>
+      </c>
+      <c r="T257" t="n">
+        <v>0.1411553309060133</v>
+      </c>
+      <c r="U257" t="n">
+        <v>0.04818102575700973</v>
+      </c>
+      <c r="V257" t="n">
+        <v>0.09174414344776001</v>
+      </c>
+      <c r="W257" t="n">
+        <v>0.6345330493942476</v>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Maquinarias, equipos y vehiculos</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>440824.3353131817</v>
+      </c>
+      <c r="E258" t="n">
+        <v>49836</v>
+      </c>
+      <c r="F258" t="n">
+        <v>64.94087545664176</v>
+      </c>
+      <c r="G258" t="n">
+        <v>95.09325</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1.904155048720863</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.159401326959528</v>
+      </c>
+      <c r="J258" t="n">
+        <v>181.0722920867752</v>
+      </c>
+      <c r="K258" t="n">
+        <v>110.2512402348941</v>
+      </c>
+      <c r="L258" t="n">
+        <v>61.80601691</v>
+      </c>
+      <c r="M258" t="n">
+        <v>6788.087351971428</v>
+      </c>
+      <c r="N258" t="n">
+        <v>7132.385443234376</v>
+      </c>
+      <c r="O258" t="n">
+        <v>2434.521208258222</v>
+      </c>
+      <c r="P258" t="n">
+        <v>4635.70584992291</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>1.547964712196496</v>
+      </c>
+      <c r="R258" t="n">
+        <v>1.195824835032993</v>
+      </c>
+      <c r="S258" t="n">
+        <v>0.1362085109553622</v>
+      </c>
+      <c r="T258" t="n">
+        <v>0.143117133061128</v>
+      </c>
+      <c r="U258" t="n">
+        <v>0.04885065431130553</v>
+      </c>
+      <c r="V258" t="n">
+        <v>0.09301922004019002</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.294474463857231</v>
+      </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Minas y canteras</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>1316020.444710105</v>
+      </c>
+      <c r="E259" t="n">
+        <v>44224</v>
+      </c>
+      <c r="F259" t="n">
+        <v>64.94087545664176</v>
+      </c>
+      <c r="G259" t="n">
+        <v>95.09325</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1.904155048720863</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.159401326959528</v>
+      </c>
+      <c r="J259" t="n">
+        <v>181.0722920867752</v>
+      </c>
+      <c r="K259" t="n">
+        <v>110.2512402348941</v>
+      </c>
+      <c r="L259" t="n">
+        <v>61.80601691</v>
+      </c>
+      <c r="M259" t="n">
+        <v>20264.90150396503</v>
+      </c>
+      <c r="N259" t="n">
+        <v>21292.75611833154</v>
+      </c>
+      <c r="O259" t="n">
+        <v>7267.928348084473</v>
+      </c>
+      <c r="P259" t="n">
+        <v>13839.26245774653</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>2.252579297923158</v>
+      </c>
+      <c r="R259" t="n">
+        <v>3.710689713039101</v>
+      </c>
+      <c r="S259" t="n">
+        <v>0.4582331201149834</v>
+      </c>
+      <c r="T259" t="n">
+        <v>0.4814751293038065</v>
+      </c>
+      <c r="U259" t="n">
+        <v>0.1643435317493776</v>
+      </c>
+      <c r="V259" t="n">
+        <v>0.3129355657051947</v>
+      </c>
+      <c r="W259" t="n">
+        <v>0.6070513764618353</v>
+      </c>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Resto industria</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>1641216.302236897</v>
+      </c>
+      <c r="E260" t="n">
+        <v>372674</v>
+      </c>
+      <c r="F260" t="n">
+        <v>64.94087545664176</v>
+      </c>
+      <c r="G260" t="n">
+        <v>95.09325</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1.904155048720863</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1.159401326959528</v>
+      </c>
+      <c r="J260" t="n">
+        <v>181.0722920867752</v>
+      </c>
+      <c r="K260" t="n">
+        <v>110.2512402348941</v>
+      </c>
+      <c r="L260" t="n">
+        <v>61.80601691</v>
+      </c>
+      <c r="M260" t="n">
+        <v>25272.46962250558</v>
+      </c>
+      <c r="N260" t="n">
+        <v>26554.31273991957</v>
+      </c>
+      <c r="O260" t="n">
+        <v>9063.873237161974</v>
+      </c>
+      <c r="P260" t="n">
+        <v>17259.01998550788</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0.5084300842365573</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0.7194575988478609</v>
+      </c>
+      <c r="S260" t="n">
+        <v>0.06781387921482471</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0.07125346211412539</v>
+      </c>
+      <c r="U260" t="n">
+        <v>0.02432118483490121</v>
+      </c>
+      <c r="V260" t="n">
+        <v>0.04631130689425041</v>
+      </c>
+      <c r="W260" t="n">
+        <v>0.7066852654704837</v>
+      </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>7398316.983726001</v>
+      </c>
+      <c r="E261" t="n">
+        <v>783984</v>
+      </c>
+      <c r="F261" t="n">
+        <v>64.94087545664176</v>
+      </c>
+      <c r="G261" t="n">
+        <v>95.09325</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1.904155048720863</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1.159401326959528</v>
+      </c>
+      <c r="J261" t="n">
+        <v>181.0722920867752</v>
+      </c>
+      <c r="K261" t="n">
+        <v>110.2512402348941</v>
+      </c>
+      <c r="L261" t="n">
+        <v>61.80601691</v>
+      </c>
+      <c r="M261" t="n">
+        <v>113923.8874084095</v>
+      </c>
+      <c r="N261" t="n">
+        <v>119702.2127230622</v>
+      </c>
+      <c r="O261" t="n">
+        <v>40858.36048389176</v>
+      </c>
+      <c r="P261" t="n">
+        <v>77800.65339785948</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>1.490474264270582</v>
+      </c>
+      <c r="R261" t="n">
+        <v>1.431722430106231</v>
+      </c>
+      <c r="S261" t="n">
+        <v>0.1453140464708585</v>
+      </c>
+      <c r="T261" t="n">
+        <v>0.15268450978982</v>
+      </c>
+      <c r="U261" t="n">
+        <v>0.05211631931760311</v>
+      </c>
+      <c r="V261" t="n">
+        <v>0.09923755254936259</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.041035771270268</v>
+      </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C262" t="inlineStr">
         <is>
           <t>Total Manufactura</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D262" t="n">
         <v>3873365.58245114</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E262" t="n">
         <v>294295</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F262" t="n">
         <v>64.94087545664176</v>
       </c>
-      <c r="G253" t="n">
+      <c r="G262" t="n">
         <v>95.09325</v>
       </c>
-      <c r="H253" t="n">
+      <c r="H262" t="n">
         <v>1.904155048720863</v>
       </c>
-      <c r="I253" t="n">
+      <c r="I262" t="n">
         <v>1.159401326959528</v>
       </c>
-      <c r="J253" t="n">
+      <c r="J262" t="n">
         <v>181.0722920867752</v>
       </c>
-      <c r="K253" t="n">
+      <c r="K262" t="n">
         <v>110.2512402348941</v>
       </c>
-      <c r="L253" t="n">
+      <c r="L262" t="n">
         <v>61.80601691</v>
       </c>
-      <c r="M253" t="n">
+      <c r="M262" t="n">
         <v>59644.492859312</v>
       </c>
-      <c r="N253" t="n">
+      <c r="N262" t="n">
         <v>62669.71689975451</v>
       </c>
-      <c r="O253" t="n">
+      <c r="O262" t="n">
         <v>21391.26609495233</v>
       </c>
-      <c r="P253" t="n">
+      <c r="P262" t="n">
         <v>40732.2873332349</v>
       </c>
-      <c r="Q253" t="n">
+      <c r="Q262" t="n">
         <v>1.591277747152539</v>
       </c>
-      <c r="R253" t="n">
+      <c r="R262" t="n">
         <v>1.104408326547155</v>
       </c>
-      <c r="S253" t="n">
+      <c r="S262" t="n">
         <v>0.2026690662746972</v>
       </c>
-      <c r="T253" t="n">
+      <c r="T262" t="n">
         <v>0.2129486294356157</v>
       </c>
-      <c r="U253" t="n">
+      <c r="U262" t="n">
         <v>0.07268647477854648</v>
       </c>
-      <c r="V253" t="n">
+      <c r="V262" t="n">
         <v>0.1384063179232909</v>
       </c>
-      <c r="W253" t="n">
+      <c r="W262" t="n">
         <v>1.440841859756294</v>
       </c>
-      <c r="X253" t="inlineStr">
+      <c r="X262" t="inlineStr">
         <is>
           <t>Valor Agregado Bruto (vab) en pesos corrientes y luego ajustado o convertido por distintas variables (IPC, IPI, TCP, TCC). Empleo en puestos de trabajo asalariados (emp). La productividad del trabajo se presenta tanto en índice como en nivel.</t>
         </is>
